--- a/initial_claims/OR/OR_data.xlsx
+++ b/initial_claims/OR/OR_data.xlsx
@@ -1,34 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/states/OR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/initial_claims/OR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{955AB768-C967-9F4A-A59C-B9901A40A38B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9AF2FC3-FFF9-5845-A80F-6F2DFA5BC764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI Weekly Claims" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UI Weekly Claims'!$A$7:$D$858</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UI Weekly Claims'!$A$7:$D$895</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12233" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12722" uniqueCount="95">
   <si>
     <t>Oregon Initial Claims for Unemployment Insurance, Weekly, By Place of Residence</t>
   </si>
   <si>
-    <t>Downloaded: Jun 11, 2020 12:52 PM</t>
+    <t>Downloaded: Jun 18, 2020 12:48 PM</t>
   </si>
   <si>
     <t>Sources:</t>
@@ -306,6 +306,9 @@
   <si>
     <t>23</t>
   </si>
+  <si>
+    <t>24</t>
+  </si>
 </sst>
 </file>
 
@@ -370,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="860">
+  <cellXfs count="897">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -385,6 +388,43 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1555,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z858"/>
+  <dimension ref="A1:Z895"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A852" workbookViewId="0">
+      <selection activeCell="D858" sqref="D858"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1568,106 +1608,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="857" t="s">
+      <c r="A1" s="894" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="858"/>
-      <c r="C1" s="858"/>
-      <c r="D1" s="858"/>
-      <c r="E1" s="858"/>
-      <c r="F1" s="858"/>
-      <c r="G1" s="858"/>
-      <c r="H1" s="858"/>
-      <c r="I1" s="858"/>
-      <c r="J1" s="858"/>
-      <c r="K1" s="858"/>
-      <c r="L1" s="858"/>
-      <c r="M1" s="858"/>
+      <c r="B1" s="895"/>
+      <c r="C1" s="895"/>
+      <c r="D1" s="895"/>
+      <c r="E1" s="895"/>
+      <c r="F1" s="895"/>
+      <c r="G1" s="895"/>
+      <c r="H1" s="895"/>
+      <c r="I1" s="895"/>
+      <c r="J1" s="895"/>
+      <c r="K1" s="895"/>
+      <c r="L1" s="895"/>
+      <c r="M1" s="895"/>
     </row>
     <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="859" t="s">
+      <c r="A2" s="896" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="858"/>
-      <c r="C2" s="858"/>
-      <c r="D2" s="858"/>
-      <c r="E2" s="858"/>
-      <c r="F2" s="858"/>
-      <c r="G2" s="858"/>
-      <c r="H2" s="858"/>
-      <c r="I2" s="858"/>
-      <c r="J2" s="858"/>
-      <c r="K2" s="858"/>
-      <c r="L2" s="858"/>
-      <c r="M2" s="858"/>
+      <c r="B2" s="895"/>
+      <c r="C2" s="895"/>
+      <c r="D2" s="895"/>
+      <c r="E2" s="895"/>
+      <c r="F2" s="895"/>
+      <c r="G2" s="895"/>
+      <c r="H2" s="895"/>
+      <c r="I2" s="895"/>
+      <c r="J2" s="895"/>
+      <c r="K2" s="895"/>
+      <c r="L2" s="895"/>
+      <c r="M2" s="895"/>
     </row>
     <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="859" t="s">
+      <c r="A3" s="896" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="858"/>
-      <c r="C3" s="858"/>
-      <c r="D3" s="858"/>
-      <c r="E3" s="858"/>
-      <c r="F3" s="858"/>
-      <c r="G3" s="858"/>
-      <c r="H3" s="858"/>
-      <c r="I3" s="858"/>
-      <c r="J3" s="858"/>
-      <c r="K3" s="858"/>
-      <c r="L3" s="858"/>
-      <c r="M3" s="858"/>
+      <c r="B3" s="895"/>
+      <c r="C3" s="895"/>
+      <c r="D3" s="895"/>
+      <c r="E3" s="895"/>
+      <c r="F3" s="895"/>
+      <c r="G3" s="895"/>
+      <c r="H3" s="895"/>
+      <c r="I3" s="895"/>
+      <c r="J3" s="895"/>
+      <c r="K3" s="895"/>
+      <c r="L3" s="895"/>
+      <c r="M3" s="895"/>
     </row>
     <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="859" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="858"/>
-      <c r="C4" s="858"/>
-      <c r="D4" s="858"/>
-      <c r="E4" s="858"/>
-      <c r="F4" s="858"/>
-      <c r="G4" s="858"/>
-      <c r="H4" s="858"/>
-      <c r="I4" s="858"/>
-      <c r="J4" s="858"/>
-      <c r="K4" s="858"/>
-      <c r="L4" s="858"/>
-      <c r="M4" s="858"/>
+      <c r="A4" s="896" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="895"/>
+      <c r="C4" s="895"/>
+      <c r="D4" s="895"/>
+      <c r="E4" s="895"/>
+      <c r="F4" s="895"/>
+      <c r="G4" s="895"/>
+      <c r="H4" s="895"/>
+      <c r="I4" s="895"/>
+      <c r="J4" s="895"/>
+      <c r="K4" s="895"/>
+      <c r="L4" s="895"/>
+      <c r="M4" s="895"/>
     </row>
     <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="859" t="s">
+      <c r="A5" s="896" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="858"/>
-      <c r="C5" s="858"/>
-      <c r="D5" s="858"/>
-      <c r="E5" s="858"/>
-      <c r="F5" s="858"/>
-      <c r="G5" s="858"/>
-      <c r="H5" s="858"/>
-      <c r="I5" s="858"/>
-      <c r="J5" s="858"/>
-      <c r="K5" s="858"/>
-      <c r="L5" s="858"/>
-      <c r="M5" s="858"/>
+      <c r="B5" s="895"/>
+      <c r="C5" s="895"/>
+      <c r="D5" s="895"/>
+      <c r="E5" s="895"/>
+      <c r="F5" s="895"/>
+      <c r="G5" s="895"/>
+      <c r="H5" s="895"/>
+      <c r="I5" s="895"/>
+      <c r="J5" s="895"/>
+      <c r="K5" s="895"/>
+      <c r="L5" s="895"/>
+      <c r="M5" s="895"/>
     </row>
     <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="859" t="s">
+      <c r="A6" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="858"/>
-      <c r="C6" s="858"/>
-      <c r="D6" s="858"/>
-      <c r="E6" s="858"/>
-      <c r="F6" s="858"/>
-      <c r="G6" s="858"/>
-      <c r="H6" s="858"/>
-      <c r="I6" s="858"/>
-      <c r="J6" s="858"/>
-      <c r="K6" s="858"/>
-      <c r="L6" s="858"/>
-      <c r="M6" s="858"/>
+      <c r="B6" s="895"/>
+      <c r="C6" s="895"/>
+      <c r="D6" s="895"/>
+      <c r="E6" s="895"/>
+      <c r="F6" s="895"/>
+      <c r="G6" s="895"/>
+      <c r="H6" s="895"/>
+      <c r="I6" s="895"/>
+      <c r="J6" s="895"/>
+      <c r="K6" s="895"/>
+      <c r="L6" s="895"/>
+      <c r="M6" s="895"/>
     </row>
     <row r="7" spans="1:26" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -69829,8 +69869,2968 @@
         <v>3</v>
       </c>
     </row>
+    <row r="859" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A859" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B859" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C859" s="857">
+        <v>43995</v>
+      </c>
+      <c r="D859" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E859" s="5">
+        <v>18188</v>
+      </c>
+      <c r="F859" s="5">
+        <v>309</v>
+      </c>
+      <c r="G859" s="5">
+        <v>7</v>
+      </c>
+      <c r="H859" s="5">
+        <v>14</v>
+      </c>
+      <c r="I859" s="5">
+        <v>1150</v>
+      </c>
+      <c r="J859" s="5">
+        <v>2363</v>
+      </c>
+      <c r="K859" s="5">
+        <v>624</v>
+      </c>
+      <c r="L859" s="5">
+        <v>1895</v>
+      </c>
+      <c r="M859" s="5">
+        <v>798</v>
+      </c>
+      <c r="N859" s="5">
+        <v>262</v>
+      </c>
+      <c r="O859" s="5">
+        <v>203</v>
+      </c>
+      <c r="P859" s="5">
+        <v>263</v>
+      </c>
+      <c r="Q859" s="5">
+        <v>572</v>
+      </c>
+      <c r="R859" s="5">
+        <v>101</v>
+      </c>
+      <c r="S859" s="5">
+        <v>1436</v>
+      </c>
+      <c r="T859" s="5">
+        <v>1787</v>
+      </c>
+      <c r="U859" s="5">
+        <v>2668</v>
+      </c>
+      <c r="V859" s="5">
+        <v>468</v>
+      </c>
+      <c r="W859" s="5">
+        <v>2219</v>
+      </c>
+      <c r="X859" s="5">
+        <v>606</v>
+      </c>
+      <c r="Y859" s="5">
+        <v>380</v>
+      </c>
+      <c r="Z859" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="860" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A860" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B860" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C860" s="858">
+        <v>43995</v>
+      </c>
+      <c r="D860" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E860" s="5">
+        <v>48</v>
+      </c>
+      <c r="F860" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G860" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H860" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I860" s="5">
+        <v>3</v>
+      </c>
+      <c r="J860" s="5">
+        <v>14</v>
+      </c>
+      <c r="K860" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L860" s="5">
+        <v>7</v>
+      </c>
+      <c r="M860" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N860" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O860" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P860" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q860" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R860" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S860" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T860" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U860" s="5">
+        <v>7</v>
+      </c>
+      <c r="V860" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W860" s="5">
+        <v>6</v>
+      </c>
+      <c r="X860" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y860" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z860" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="861" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A861" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B861" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C861" s="859">
+        <v>43995</v>
+      </c>
+      <c r="D861" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E861" s="5">
+        <v>257</v>
+      </c>
+      <c r="F861" s="5">
+        <v>4</v>
+      </c>
+      <c r="G861" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H861" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I861" s="5">
+        <v>13</v>
+      </c>
+      <c r="J861" s="5">
+        <v>28</v>
+      </c>
+      <c r="K861" s="5">
+        <v>5</v>
+      </c>
+      <c r="L861" s="5">
+        <v>34</v>
+      </c>
+      <c r="M861" s="5">
+        <v>5</v>
+      </c>
+      <c r="N861" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O861" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P861" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q861" s="5">
+        <v>10</v>
+      </c>
+      <c r="R861" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S861" s="5">
+        <v>20</v>
+      </c>
+      <c r="T861" s="5">
+        <v>33</v>
+      </c>
+      <c r="U861" s="5">
+        <v>33</v>
+      </c>
+      <c r="V861" s="5">
+        <v>5</v>
+      </c>
+      <c r="W861" s="5">
+        <v>39</v>
+      </c>
+      <c r="X861" s="5">
+        <v>12</v>
+      </c>
+      <c r="Y861" s="5">
+        <v>11</v>
+      </c>
+      <c r="Z861" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="862" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A862" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B862" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C862" s="860">
+        <v>43995</v>
+      </c>
+      <c r="D862" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E862" s="5">
+        <v>1588</v>
+      </c>
+      <c r="F862" s="5">
+        <v>14</v>
+      </c>
+      <c r="G862" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H862" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I862" s="5">
+        <v>133</v>
+      </c>
+      <c r="J862" s="5">
+        <v>209</v>
+      </c>
+      <c r="K862" s="5">
+        <v>78</v>
+      </c>
+      <c r="L862" s="5">
+        <v>178</v>
+      </c>
+      <c r="M862" s="5">
+        <v>76</v>
+      </c>
+      <c r="N862" s="5">
+        <v>18</v>
+      </c>
+      <c r="O862" s="5">
+        <v>21</v>
+      </c>
+      <c r="P862" s="5">
+        <v>31</v>
+      </c>
+      <c r="Q862" s="5">
+        <v>54</v>
+      </c>
+      <c r="R862" s="5">
+        <v>12</v>
+      </c>
+      <c r="S862" s="5">
+        <v>100</v>
+      </c>
+      <c r="T862" s="5">
+        <v>95</v>
+      </c>
+      <c r="U862" s="5">
+        <v>255</v>
+      </c>
+      <c r="V862" s="5">
+        <v>56</v>
+      </c>
+      <c r="W862" s="5">
+        <v>145</v>
+      </c>
+      <c r="X862" s="5">
+        <v>67</v>
+      </c>
+      <c r="Y862" s="5">
+        <v>40</v>
+      </c>
+      <c r="Z862" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="863" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A863" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B863" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C863" s="861">
+        <v>43995</v>
+      </c>
+      <c r="D863" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E863" s="5">
+        <v>182</v>
+      </c>
+      <c r="F863" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G863" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H863" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I863" s="5">
+        <v>12</v>
+      </c>
+      <c r="J863" s="5">
+        <v>7</v>
+      </c>
+      <c r="K863" s="5">
+        <v>6</v>
+      </c>
+      <c r="L863" s="5">
+        <v>20</v>
+      </c>
+      <c r="M863" s="5">
+        <v>5</v>
+      </c>
+      <c r="N863" s="5">
+        <v>5</v>
+      </c>
+      <c r="O863" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P863" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q863" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R863" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S863" s="5">
+        <v>8</v>
+      </c>
+      <c r="T863" s="5">
+        <v>18</v>
+      </c>
+      <c r="U863" s="5">
+        <v>37</v>
+      </c>
+      <c r="V863" s="5">
+        <v>3</v>
+      </c>
+      <c r="W863" s="5">
+        <v>43</v>
+      </c>
+      <c r="X863" s="5">
+        <v>6</v>
+      </c>
+      <c r="Y863" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z863" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="864" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A864" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B864" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C864" s="862">
+        <v>43995</v>
+      </c>
+      <c r="D864" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E864" s="5">
+        <v>151</v>
+      </c>
+      <c r="F864" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G864" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H864" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I864" s="5">
+        <v>15</v>
+      </c>
+      <c r="J864" s="5">
+        <v>28</v>
+      </c>
+      <c r="K864" s="5">
+        <v>5</v>
+      </c>
+      <c r="L864" s="5">
+        <v>16</v>
+      </c>
+      <c r="M864" s="5">
+        <v>10</v>
+      </c>
+      <c r="N864" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O864" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P864" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q864" s="5">
+        <v>5</v>
+      </c>
+      <c r="R864" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S864" s="5">
+        <v>16</v>
+      </c>
+      <c r="T864" s="5">
+        <v>6</v>
+      </c>
+      <c r="U864" s="5">
+        <v>22</v>
+      </c>
+      <c r="V864" s="5">
+        <v>5</v>
+      </c>
+      <c r="W864" s="5">
+        <v>12</v>
+      </c>
+      <c r="X864" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y864" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z864" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="865" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A865" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B865" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C865" s="863">
+        <v>43995</v>
+      </c>
+      <c r="D865" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E865" s="5">
+        <v>225</v>
+      </c>
+      <c r="F865" s="5">
+        <v>8</v>
+      </c>
+      <c r="G865" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H865" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I865" s="5">
+        <v>7</v>
+      </c>
+      <c r="J865" s="5">
+        <v>37</v>
+      </c>
+      <c r="K865" s="5">
+        <v>5</v>
+      </c>
+      <c r="L865" s="5">
+        <v>24</v>
+      </c>
+      <c r="M865" s="5">
+        <v>14</v>
+      </c>
+      <c r="N865" s="5">
+        <v>3</v>
+      </c>
+      <c r="O865" s="5">
+        <v>3</v>
+      </c>
+      <c r="P865" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q865" s="5">
+        <v>5</v>
+      </c>
+      <c r="R865" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S865" s="5">
+        <v>20</v>
+      </c>
+      <c r="T865" s="5">
+        <v>8</v>
+      </c>
+      <c r="U865" s="5">
+        <v>31</v>
+      </c>
+      <c r="V865" s="5">
+        <v>5</v>
+      </c>
+      <c r="W865" s="5">
+        <v>41</v>
+      </c>
+      <c r="X865" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y865" s="5">
+        <v>6</v>
+      </c>
+      <c r="Z865" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="866" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A866" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B866" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C866" s="864">
+        <v>43995</v>
+      </c>
+      <c r="D866" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E866" s="5">
+        <v>53</v>
+      </c>
+      <c r="F866" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G866" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H866" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I866" s="5">
+        <v>6</v>
+      </c>
+      <c r="J866" s="5">
+        <v>4</v>
+      </c>
+      <c r="K866" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L866" s="5">
+        <v>7</v>
+      </c>
+      <c r="M866" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N866" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O866" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P866" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q866" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R866" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S866" s="5">
+        <v>7</v>
+      </c>
+      <c r="T866" s="5">
+        <v>3</v>
+      </c>
+      <c r="U866" s="5">
+        <v>7</v>
+      </c>
+      <c r="V866" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W866" s="5">
+        <v>5</v>
+      </c>
+      <c r="X866" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y866" s="5">
+        <v>6</v>
+      </c>
+      <c r="Z866" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="867" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A867" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B867" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C867" s="865">
+        <v>43995</v>
+      </c>
+      <c r="D867" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E867" s="5">
+        <v>52</v>
+      </c>
+      <c r="F867" s="5">
+        <v>4</v>
+      </c>
+      <c r="G867" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H867" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I867" s="5">
+        <v>4</v>
+      </c>
+      <c r="J867" s="5">
+        <v>7</v>
+      </c>
+      <c r="K867" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L867" s="5">
+        <v>3</v>
+      </c>
+      <c r="M867" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N867" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O867" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P867" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q867" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R867" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S867" s="5">
+        <v>5</v>
+      </c>
+      <c r="T867" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U867" s="5">
+        <v>8</v>
+      </c>
+      <c r="V867" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W867" s="5">
+        <v>10</v>
+      </c>
+      <c r="X867" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y867" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z867" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="868" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A868" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B868" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C868" s="866">
+        <v>43995</v>
+      </c>
+      <c r="D868" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E868" s="5">
+        <v>617</v>
+      </c>
+      <c r="F868" s="5">
+        <v>9</v>
+      </c>
+      <c r="G868" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H868" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I868" s="5">
+        <v>43</v>
+      </c>
+      <c r="J868" s="5">
+        <v>75</v>
+      </c>
+      <c r="K868" s="5">
+        <v>18</v>
+      </c>
+      <c r="L868" s="5">
+        <v>64</v>
+      </c>
+      <c r="M868" s="5">
+        <v>16</v>
+      </c>
+      <c r="N868" s="5">
+        <v>10</v>
+      </c>
+      <c r="O868" s="5">
+        <v>13</v>
+      </c>
+      <c r="P868" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q868" s="5">
+        <v>28</v>
+      </c>
+      <c r="R868" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S868" s="5">
+        <v>52</v>
+      </c>
+      <c r="T868" s="5">
+        <v>38</v>
+      </c>
+      <c r="U868" s="5">
+        <v>76</v>
+      </c>
+      <c r="V868" s="5">
+        <v>28</v>
+      </c>
+      <c r="W868" s="5">
+        <v>85</v>
+      </c>
+      <c r="X868" s="5">
+        <v>26</v>
+      </c>
+      <c r="Y868" s="5">
+        <v>15</v>
+      </c>
+      <c r="Z868" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="869" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A869" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B869" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C869" s="867">
+        <v>43995</v>
+      </c>
+      <c r="D869" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E869" s="5">
+        <v>361</v>
+      </c>
+      <c r="F869" s="5">
+        <v>12</v>
+      </c>
+      <c r="G869" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H869" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I869" s="5">
+        <v>19</v>
+      </c>
+      <c r="J869" s="5">
+        <v>83</v>
+      </c>
+      <c r="K869" s="5">
+        <v>9</v>
+      </c>
+      <c r="L869" s="5">
+        <v>39</v>
+      </c>
+      <c r="M869" s="5">
+        <v>18</v>
+      </c>
+      <c r="N869" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O869" s="5">
+        <v>4</v>
+      </c>
+      <c r="P869" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q869" s="5">
+        <v>8</v>
+      </c>
+      <c r="R869" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S869" s="5">
+        <v>22</v>
+      </c>
+      <c r="T869" s="5">
+        <v>15</v>
+      </c>
+      <c r="U869" s="5">
+        <v>54</v>
+      </c>
+      <c r="V869" s="5">
+        <v>3</v>
+      </c>
+      <c r="W869" s="5">
+        <v>45</v>
+      </c>
+      <c r="X869" s="5">
+        <v>7</v>
+      </c>
+      <c r="Y869" s="5">
+        <v>15</v>
+      </c>
+      <c r="Z869" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="870" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A870" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B870" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C870" s="868">
+        <v>43995</v>
+      </c>
+      <c r="D870" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y870" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z870" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="871" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A871" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B871" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C871" s="869">
+        <v>43995</v>
+      </c>
+      <c r="D871" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E871" s="5">
+        <v>17</v>
+      </c>
+      <c r="F871" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G871" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H871" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I871" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J871" s="5">
+        <v>4</v>
+      </c>
+      <c r="K871" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L871" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M871" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N871" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O871" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P871" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q871" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R871" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S871" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T871" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U871" s="5">
+        <v>5</v>
+      </c>
+      <c r="V871" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W871" s="5">
+        <v>3</v>
+      </c>
+      <c r="X871" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y871" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z871" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="872" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A872" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B872" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C872" s="870">
+        <v>43995</v>
+      </c>
+      <c r="D872" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E872" s="5">
+        <v>11</v>
+      </c>
+      <c r="F872" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G872" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H872" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I872" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J872" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K872" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L872" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M872" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N872" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O872" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P872" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q872" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R872" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S872" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T872" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U872" s="5">
+        <v>3</v>
+      </c>
+      <c r="V872" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W872" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X872" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y872" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z872" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="873" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A873" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B873" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C873" s="871">
+        <v>43995</v>
+      </c>
+      <c r="D873" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E873" s="5">
+        <v>148</v>
+      </c>
+      <c r="F873" s="5">
+        <v>36</v>
+      </c>
+      <c r="G873" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H873" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I873" s="5">
+        <v>7</v>
+      </c>
+      <c r="J873" s="5">
+        <v>20</v>
+      </c>
+      <c r="K873" s="5">
+        <v>22</v>
+      </c>
+      <c r="L873" s="5">
+        <v>5</v>
+      </c>
+      <c r="M873" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N873" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O873" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P873" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q873" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R873" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S873" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T873" s="5">
+        <v>5</v>
+      </c>
+      <c r="U873" s="5">
+        <v>19</v>
+      </c>
+      <c r="V873" s="5">
+        <v>8</v>
+      </c>
+      <c r="W873" s="5">
+        <v>14</v>
+      </c>
+      <c r="X873" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y873" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z873" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="874" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A874" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B874" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C874" s="872">
+        <v>43995</v>
+      </c>
+      <c r="D874" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E874" s="5">
+        <v>823</v>
+      </c>
+      <c r="F874" s="5">
+        <v>11</v>
+      </c>
+      <c r="G874" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H874" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I874" s="5">
+        <v>42</v>
+      </c>
+      <c r="J874" s="5">
+        <v>164</v>
+      </c>
+      <c r="K874" s="5">
+        <v>20</v>
+      </c>
+      <c r="L874" s="5">
+        <v>112</v>
+      </c>
+      <c r="M874" s="5">
+        <v>38</v>
+      </c>
+      <c r="N874" s="5">
+        <v>12</v>
+      </c>
+      <c r="O874" s="5">
+        <v>6</v>
+      </c>
+      <c r="P874" s="5">
+        <v>14</v>
+      </c>
+      <c r="Q874" s="5">
+        <v>14</v>
+      </c>
+      <c r="R874" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S874" s="5">
+        <v>43</v>
+      </c>
+      <c r="T874" s="5">
+        <v>37</v>
+      </c>
+      <c r="U874" s="5">
+        <v>150</v>
+      </c>
+      <c r="V874" s="5">
+        <v>13</v>
+      </c>
+      <c r="W874" s="5">
+        <v>100</v>
+      </c>
+      <c r="X874" s="5">
+        <v>29</v>
+      </c>
+      <c r="Y874" s="5">
+        <v>12</v>
+      </c>
+      <c r="Z874" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="875" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A875" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B875" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C875" s="873">
+        <v>43995</v>
+      </c>
+      <c r="D875" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E875" s="5">
+        <v>105</v>
+      </c>
+      <c r="F875" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G875" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H875" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I875" s="5">
+        <v>7</v>
+      </c>
+      <c r="J875" s="5">
+        <v>39</v>
+      </c>
+      <c r="K875" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L875" s="5">
+        <v>4</v>
+      </c>
+      <c r="M875" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N875" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O875" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P875" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q875" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R875" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S875" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T875" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U875" s="5">
+        <v>14</v>
+      </c>
+      <c r="V875" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W875" s="5">
+        <v>19</v>
+      </c>
+      <c r="X875" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y875" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z875" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="876" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A876" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B876" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C876" s="874">
+        <v>43995</v>
+      </c>
+      <c r="D876" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E876" s="5">
+        <v>227</v>
+      </c>
+      <c r="F876" s="5">
+        <v>5</v>
+      </c>
+      <c r="G876" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H876" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I876" s="5">
+        <v>15</v>
+      </c>
+      <c r="J876" s="5">
+        <v>49</v>
+      </c>
+      <c r="K876" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L876" s="5">
+        <v>21</v>
+      </c>
+      <c r="M876" s="5">
+        <v>6</v>
+      </c>
+      <c r="N876" s="5">
+        <v>3</v>
+      </c>
+      <c r="O876" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P876" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q876" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R876" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S876" s="5">
+        <v>21</v>
+      </c>
+      <c r="T876" s="5">
+        <v>10</v>
+      </c>
+      <c r="U876" s="5">
+        <v>50</v>
+      </c>
+      <c r="V876" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W876" s="5">
+        <v>22</v>
+      </c>
+      <c r="X876" s="5">
+        <v>7</v>
+      </c>
+      <c r="Y876" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z876" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="877" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A877" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B877" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C877" s="875">
+        <v>43995</v>
+      </c>
+      <c r="D877" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E877" s="5">
+        <v>233</v>
+      </c>
+      <c r="F877" s="5">
+        <v>6</v>
+      </c>
+      <c r="G877" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H877" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I877" s="5">
+        <v>10</v>
+      </c>
+      <c r="J877" s="5">
+        <v>67</v>
+      </c>
+      <c r="K877" s="5">
+        <v>3</v>
+      </c>
+      <c r="L877" s="5">
+        <v>26</v>
+      </c>
+      <c r="M877" s="5">
+        <v>3</v>
+      </c>
+      <c r="N877" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O877" s="5">
+        <v>5</v>
+      </c>
+      <c r="P877" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q877" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R877" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S877" s="5">
+        <v>18</v>
+      </c>
+      <c r="T877" s="5">
+        <v>11</v>
+      </c>
+      <c r="U877" s="5">
+        <v>42</v>
+      </c>
+      <c r="V877" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W877" s="5">
+        <v>26</v>
+      </c>
+      <c r="X877" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y877" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z877" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="878" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A878" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B878" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C878" s="876">
+        <v>43995</v>
+      </c>
+      <c r="D878" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E878" s="5">
+        <v>13</v>
+      </c>
+      <c r="F878" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G878" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H878" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I878" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J878" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K878" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L878" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M878" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N878" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O878" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P878" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q878" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R878" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S878" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T878" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U878" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V878" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W878" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X878" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y878" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z878" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="879" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A879" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B879" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C879" s="877">
+        <v>43995</v>
+      </c>
+      <c r="D879" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E879" s="5">
+        <v>1275</v>
+      </c>
+      <c r="F879" s="5">
+        <v>15</v>
+      </c>
+      <c r="G879" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H879" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I879" s="5">
+        <v>87</v>
+      </c>
+      <c r="J879" s="5">
+        <v>104</v>
+      </c>
+      <c r="K879" s="5">
+        <v>44</v>
+      </c>
+      <c r="L879" s="5">
+        <v>153</v>
+      </c>
+      <c r="M879" s="5">
+        <v>62</v>
+      </c>
+      <c r="N879" s="5">
+        <v>20</v>
+      </c>
+      <c r="O879" s="5">
+        <v>9</v>
+      </c>
+      <c r="P879" s="5">
+        <v>18</v>
+      </c>
+      <c r="Q879" s="5">
+        <v>35</v>
+      </c>
+      <c r="R879" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S879" s="5">
+        <v>98</v>
+      </c>
+      <c r="T879" s="5">
+        <v>131</v>
+      </c>
+      <c r="U879" s="5">
+        <v>241</v>
+      </c>
+      <c r="V879" s="5">
+        <v>26</v>
+      </c>
+      <c r="W879" s="5">
+        <v>162</v>
+      </c>
+      <c r="X879" s="5">
+        <v>48</v>
+      </c>
+      <c r="Y879" s="5">
+        <v>14</v>
+      </c>
+      <c r="Z879" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="880" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A880" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B880" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C880" s="878">
+        <v>43995</v>
+      </c>
+      <c r="D880" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E880" s="5">
+        <v>228</v>
+      </c>
+      <c r="F880" s="5">
+        <v>3</v>
+      </c>
+      <c r="G880" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H880" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I880" s="5">
+        <v>10</v>
+      </c>
+      <c r="J880" s="5">
+        <v>35</v>
+      </c>
+      <c r="K880" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L880" s="5">
+        <v>31</v>
+      </c>
+      <c r="M880" s="5">
+        <v>14</v>
+      </c>
+      <c r="N880" s="5">
+        <v>5</v>
+      </c>
+      <c r="O880" s="5">
+        <v>4</v>
+      </c>
+      <c r="P880" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q880" s="5">
+        <v>3</v>
+      </c>
+      <c r="R880" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S880" s="5">
+        <v>7</v>
+      </c>
+      <c r="T880" s="5">
+        <v>3</v>
+      </c>
+      <c r="U880" s="5">
+        <v>18</v>
+      </c>
+      <c r="V880" s="5">
+        <v>24</v>
+      </c>
+      <c r="W880" s="5">
+        <v>50</v>
+      </c>
+      <c r="X880" s="5">
+        <v>7</v>
+      </c>
+      <c r="Y880" s="5">
+        <v>6</v>
+      </c>
+      <c r="Z880" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="881" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A881" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B881" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C881" s="879">
+        <v>43995</v>
+      </c>
+      <c r="D881" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E881" s="5">
+        <v>481</v>
+      </c>
+      <c r="F881" s="5">
+        <v>14</v>
+      </c>
+      <c r="G881" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H881" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I881" s="5">
+        <v>49</v>
+      </c>
+      <c r="J881" s="5">
+        <v>93</v>
+      </c>
+      <c r="K881" s="5">
+        <v>14</v>
+      </c>
+      <c r="L881" s="5">
+        <v>43</v>
+      </c>
+      <c r="M881" s="5">
+        <v>20</v>
+      </c>
+      <c r="N881" s="5">
+        <v>6</v>
+      </c>
+      <c r="O881" s="5">
+        <v>3</v>
+      </c>
+      <c r="P881" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q881" s="5">
+        <v>14</v>
+      </c>
+      <c r="R881" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S881" s="5">
+        <v>43</v>
+      </c>
+      <c r="T881" s="5">
+        <v>37</v>
+      </c>
+      <c r="U881" s="5">
+        <v>59</v>
+      </c>
+      <c r="V881" s="5">
+        <v>8</v>
+      </c>
+      <c r="W881" s="5">
+        <v>40</v>
+      </c>
+      <c r="X881" s="5">
+        <v>13</v>
+      </c>
+      <c r="Y881" s="5">
+        <v>15</v>
+      </c>
+      <c r="Z881" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="882" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A882" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B882" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C882" s="880">
+        <v>43995</v>
+      </c>
+      <c r="D882" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E882" s="5">
+        <v>65</v>
+      </c>
+      <c r="F882" s="5">
+        <v>10</v>
+      </c>
+      <c r="G882" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H882" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I882" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J882" s="5">
+        <v>3</v>
+      </c>
+      <c r="K882" s="5">
+        <v>6</v>
+      </c>
+      <c r="L882" s="5">
+        <v>13</v>
+      </c>
+      <c r="M882" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N882" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O882" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P882" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q882" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R882" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S882" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T882" s="5">
+        <v>5</v>
+      </c>
+      <c r="U882" s="5">
+        <v>6</v>
+      </c>
+      <c r="V882" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W882" s="5">
+        <v>10</v>
+      </c>
+      <c r="X882" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y882" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z882" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="883" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A883" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B883" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C883" s="881">
+        <v>43995</v>
+      </c>
+      <c r="D883" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E883" s="5">
+        <v>1695</v>
+      </c>
+      <c r="F883" s="5">
+        <v>61</v>
+      </c>
+      <c r="G883" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H883" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I883" s="5">
+        <v>120</v>
+      </c>
+      <c r="J883" s="5">
+        <v>167</v>
+      </c>
+      <c r="K883" s="5">
+        <v>53</v>
+      </c>
+      <c r="L883" s="5">
+        <v>136</v>
+      </c>
+      <c r="M883" s="5">
+        <v>43</v>
+      </c>
+      <c r="N883" s="5">
+        <v>8</v>
+      </c>
+      <c r="O883" s="5">
+        <v>17</v>
+      </c>
+      <c r="P883" s="5">
+        <v>14</v>
+      </c>
+      <c r="Q883" s="5">
+        <v>26</v>
+      </c>
+      <c r="R883" s="5">
+        <v>3</v>
+      </c>
+      <c r="S883" s="5">
+        <v>128</v>
+      </c>
+      <c r="T883" s="5">
+        <v>497</v>
+      </c>
+      <c r="U883" s="5">
+        <v>178</v>
+      </c>
+      <c r="V883" s="5">
+        <v>19</v>
+      </c>
+      <c r="W883" s="5">
+        <v>140</v>
+      </c>
+      <c r="X883" s="5">
+        <v>47</v>
+      </c>
+      <c r="Y883" s="5">
+        <v>33</v>
+      </c>
+      <c r="Z883" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="884" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A884" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B884" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C884" s="882">
+        <v>43995</v>
+      </c>
+      <c r="D884" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E884" s="5">
+        <v>28</v>
+      </c>
+      <c r="F884" s="5">
+        <v>5</v>
+      </c>
+      <c r="G884" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H884" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I884" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J884" s="5">
+        <v>4</v>
+      </c>
+      <c r="K884" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L884" s="5">
+        <v>6</v>
+      </c>
+      <c r="M884" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N884" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O884" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P884" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q884" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R884" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S884" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T884" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U884" s="5">
+        <v>3</v>
+      </c>
+      <c r="V884" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W884" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X884" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y884" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z884" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="885" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A885" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B885" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C885" s="883">
+        <v>43995</v>
+      </c>
+      <c r="D885" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E885" s="5">
+        <v>3968</v>
+      </c>
+      <c r="F885" s="5">
+        <v>11</v>
+      </c>
+      <c r="G885" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H885" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I885" s="5">
+        <v>183</v>
+      </c>
+      <c r="J885" s="5">
+        <v>381</v>
+      </c>
+      <c r="K885" s="5">
+        <v>158</v>
+      </c>
+      <c r="L885" s="5">
+        <v>427</v>
+      </c>
+      <c r="M885" s="5">
+        <v>200</v>
+      </c>
+      <c r="N885" s="5">
+        <v>87</v>
+      </c>
+      <c r="O885" s="5">
+        <v>54</v>
+      </c>
+      <c r="P885" s="5">
+        <v>63</v>
+      </c>
+      <c r="Q885" s="5">
+        <v>168</v>
+      </c>
+      <c r="R885" s="5">
+        <v>26</v>
+      </c>
+      <c r="S885" s="5">
+        <v>346</v>
+      </c>
+      <c r="T885" s="5">
+        <v>303</v>
+      </c>
+      <c r="U885" s="5">
+        <v>607</v>
+      </c>
+      <c r="V885" s="5">
+        <v>104</v>
+      </c>
+      <c r="W885" s="5">
+        <v>579</v>
+      </c>
+      <c r="X885" s="5">
+        <v>180</v>
+      </c>
+      <c r="Y885" s="5">
+        <v>67</v>
+      </c>
+      <c r="Z885" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="886" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A886" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B886" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C886" s="884">
+        <v>43995</v>
+      </c>
+      <c r="D886" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E886" s="5">
+        <v>357</v>
+      </c>
+      <c r="F886" s="5">
+        <v>12</v>
+      </c>
+      <c r="G886" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H886" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I886" s="5">
+        <v>22</v>
+      </c>
+      <c r="J886" s="5">
+        <v>29</v>
+      </c>
+      <c r="K886" s="5">
+        <v>9</v>
+      </c>
+      <c r="L886" s="5">
+        <v>26</v>
+      </c>
+      <c r="M886" s="5">
+        <v>5</v>
+      </c>
+      <c r="N886" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O886" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P886" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q886" s="5">
+        <v>11</v>
+      </c>
+      <c r="R886" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S886" s="5">
+        <v>16</v>
+      </c>
+      <c r="T886" s="5">
+        <v>118</v>
+      </c>
+      <c r="U886" s="5">
+        <v>49</v>
+      </c>
+      <c r="V886" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W886" s="5">
+        <v>34</v>
+      </c>
+      <c r="X886" s="5">
+        <v>8</v>
+      </c>
+      <c r="Y886" s="5">
+        <v>13</v>
+      </c>
+      <c r="Z886" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="887" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A887" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B887" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C887" s="885">
+        <v>43995</v>
+      </c>
+      <c r="D887" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y887" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z887" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="888" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A888" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B888" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C888" s="886">
+        <v>43995</v>
+      </c>
+      <c r="D888" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E888" s="5">
+        <v>80</v>
+      </c>
+      <c r="F888" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G888" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H888" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I888" s="5">
+        <v>4</v>
+      </c>
+      <c r="J888" s="5">
+        <v>8</v>
+      </c>
+      <c r="K888" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L888" s="5">
+        <v>8</v>
+      </c>
+      <c r="M888" s="5">
+        <v>3</v>
+      </c>
+      <c r="N888" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O888" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P888" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q888" s="5">
+        <v>3</v>
+      </c>
+      <c r="R888" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S888" s="5">
+        <v>15</v>
+      </c>
+      <c r="T888" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U888" s="5">
+        <v>12</v>
+      </c>
+      <c r="V888" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W888" s="5">
+        <v>17</v>
+      </c>
+      <c r="X888" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y888" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z888" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="889" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A889" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B889" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C889" s="887">
+        <v>43995</v>
+      </c>
+      <c r="D889" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E889" s="5">
+        <v>252</v>
+      </c>
+      <c r="F889" s="5">
+        <v>17</v>
+      </c>
+      <c r="G889" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H889" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I889" s="5">
+        <v>11</v>
+      </c>
+      <c r="J889" s="5">
+        <v>48</v>
+      </c>
+      <c r="K889" s="5">
+        <v>6</v>
+      </c>
+      <c r="L889" s="5">
+        <v>24</v>
+      </c>
+      <c r="M889" s="5">
+        <v>13</v>
+      </c>
+      <c r="N889" s="5">
+        <v>3</v>
+      </c>
+      <c r="O889" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P889" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q889" s="5">
+        <v>6</v>
+      </c>
+      <c r="R889" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S889" s="5">
+        <v>8</v>
+      </c>
+      <c r="T889" s="5">
+        <v>13</v>
+      </c>
+      <c r="U889" s="5">
+        <v>38</v>
+      </c>
+      <c r="V889" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W889" s="5">
+        <v>45</v>
+      </c>
+      <c r="X889" s="5">
+        <v>6</v>
+      </c>
+      <c r="Y889" s="5">
+        <v>8</v>
+      </c>
+      <c r="Z889" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="890" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A890" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B890" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C890" s="888">
+        <v>43995</v>
+      </c>
+      <c r="D890" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E890" s="5">
+        <v>76</v>
+      </c>
+      <c r="F890" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G890" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H890" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I890" s="5">
+        <v>6</v>
+      </c>
+      <c r="J890" s="5">
+        <v>22</v>
+      </c>
+      <c r="K890" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L890" s="5">
+        <v>13</v>
+      </c>
+      <c r="M890" s="5">
+        <v>3</v>
+      </c>
+      <c r="N890" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O890" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P890" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q890" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R890" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S890" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T890" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U890" s="5">
+        <v>9</v>
+      </c>
+      <c r="V890" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W890" s="5">
+        <v>9</v>
+      </c>
+      <c r="X890" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y890" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z890" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="891" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A891" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B891" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C891" s="889">
+        <v>43995</v>
+      </c>
+      <c r="D891" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E891" s="5">
+        <v>11</v>
+      </c>
+      <c r="F891" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G891" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H891" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I891" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J891" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K891" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L891" s="5">
+        <v>3</v>
+      </c>
+      <c r="M891" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N891" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O891" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P891" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q891" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R891" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S891" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T891" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U891" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V891" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W891" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X891" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y891" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z891" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="892" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A892" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B892" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C892" s="890">
+        <v>43995</v>
+      </c>
+      <c r="D892" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E892" s="5">
+        <v>114</v>
+      </c>
+      <c r="F892" s="5">
+        <v>9</v>
+      </c>
+      <c r="G892" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H892" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I892" s="5">
+        <v>11</v>
+      </c>
+      <c r="J892" s="5">
+        <v>10</v>
+      </c>
+      <c r="K892" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L892" s="5">
+        <v>13</v>
+      </c>
+      <c r="M892" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N892" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O892" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P892" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q892" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R892" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S892" s="5">
+        <v>8</v>
+      </c>
+      <c r="T892" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U892" s="5">
+        <v>36</v>
+      </c>
+      <c r="V892" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W892" s="5">
+        <v>14</v>
+      </c>
+      <c r="X892" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y892" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z892" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="893" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A893" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B893" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C893" s="891">
+        <v>43995</v>
+      </c>
+      <c r="D893" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E893" s="5">
+        <v>2495</v>
+      </c>
+      <c r="F893" s="5">
+        <v>13</v>
+      </c>
+      <c r="G893" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H893" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I893" s="5">
+        <v>141</v>
+      </c>
+      <c r="J893" s="5">
+        <v>312</v>
+      </c>
+      <c r="K893" s="5">
+        <v>84</v>
+      </c>
+      <c r="L893" s="5">
+        <v>257</v>
+      </c>
+      <c r="M893" s="5">
+        <v>59</v>
+      </c>
+      <c r="N893" s="5">
+        <v>48</v>
+      </c>
+      <c r="O893" s="5">
+        <v>31</v>
+      </c>
+      <c r="P893" s="5">
+        <v>42</v>
+      </c>
+      <c r="Q893" s="5">
+        <v>102</v>
+      </c>
+      <c r="R893" s="5">
+        <v>25</v>
+      </c>
+      <c r="S893" s="5">
+        <v>246</v>
+      </c>
+      <c r="T893" s="5">
+        <v>313</v>
+      </c>
+      <c r="U893" s="5">
+        <v>331</v>
+      </c>
+      <c r="V893" s="5">
+        <v>109</v>
+      </c>
+      <c r="W893" s="5">
+        <v>271</v>
+      </c>
+      <c r="X893" s="5">
+        <v>67</v>
+      </c>
+      <c r="Y893" s="5">
+        <v>38</v>
+      </c>
+      <c r="Z893" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="894" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A894" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B894" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C894" s="892">
+        <v>43995</v>
+      </c>
+      <c r="D894" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E894" s="5">
+        <v>4</v>
+      </c>
+      <c r="F894" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G894" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H894" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I894" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J894" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K894" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L894" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M894" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N894" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O894" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P894" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q894" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R894" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S894" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T894" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U894" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V894" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W894" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X894" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y894" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z894" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="895" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A895" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B895" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C895" s="893">
+        <v>43995</v>
+      </c>
+      <c r="D895" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E895" s="5">
+        <v>386</v>
+      </c>
+      <c r="F895" s="5">
+        <v>10</v>
+      </c>
+      <c r="G895" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H895" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I895" s="5">
+        <v>35</v>
+      </c>
+      <c r="J895" s="5">
+        <v>97</v>
+      </c>
+      <c r="K895" s="5">
+        <v>9</v>
+      </c>
+      <c r="L895" s="5">
+        <v>25</v>
+      </c>
+      <c r="M895" s="5">
+        <v>14</v>
+      </c>
+      <c r="N895" s="5">
+        <v>3</v>
+      </c>
+      <c r="O895" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P895" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q895" s="5">
+        <v>17</v>
+      </c>
+      <c r="R895" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S895" s="5">
+        <v>28</v>
+      </c>
+      <c r="T895" s="5">
+        <v>24</v>
+      </c>
+      <c r="U895" s="5">
+        <v>61</v>
+      </c>
+      <c r="V895" s="5">
+        <v>7</v>
+      </c>
+      <c r="W895" s="5">
+        <v>30</v>
+      </c>
+      <c r="X895" s="5">
+        <v>8</v>
+      </c>
+      <c r="Y895" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z895" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A7:D858" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A7:D895" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="6">
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="A1:M1"/>

--- a/initial_claims/OR/OR_data.xlsx
+++ b/initial_claims/OR/OR_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/initial_claims/OR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9AF2FC3-FFF9-5845-A80F-6F2DFA5BC764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA23BDDD-D609-9C41-A8B8-F3C19DBB212D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,19 @@
     <sheet name="UI Weekly Claims" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UI Weekly Claims'!$A$7:$D$895</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UI Weekly Claims'!$A$7:$D$932</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12722" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13242" uniqueCount="96">
   <si>
     <t>Oregon Initial Claims for Unemployment Insurance, Weekly, By Place of Residence</t>
   </si>
   <si>
-    <t>Downloaded: Jun 18, 2020 12:48 PM</t>
+    <t>Downloaded: Jul 1, 2020 11:54 AM</t>
   </si>
   <si>
     <t>Sources:</t>
@@ -309,6 +309,9 @@
   <si>
     <t>24</t>
   </si>
+  <si>
+    <t>25</t>
+  </si>
 </sst>
 </file>
 
@@ -373,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="897">
+  <cellXfs count="934">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -388,6 +391,43 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1595,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z895"/>
+  <dimension ref="A1:Z932"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A852" workbookViewId="0">
-      <selection activeCell="D858" sqref="D858"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1608,106 +1648,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="894" t="s">
+      <c r="A1" s="931" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="895"/>
-      <c r="C1" s="895"/>
-      <c r="D1" s="895"/>
-      <c r="E1" s="895"/>
-      <c r="F1" s="895"/>
-      <c r="G1" s="895"/>
-      <c r="H1" s="895"/>
-      <c r="I1" s="895"/>
-      <c r="J1" s="895"/>
-      <c r="K1" s="895"/>
-      <c r="L1" s="895"/>
-      <c r="M1" s="895"/>
+      <c r="B1" s="932"/>
+      <c r="C1" s="932"/>
+      <c r="D1" s="932"/>
+      <c r="E1" s="932"/>
+      <c r="F1" s="932"/>
+      <c r="G1" s="932"/>
+      <c r="H1" s="932"/>
+      <c r="I1" s="932"/>
+      <c r="J1" s="932"/>
+      <c r="K1" s="932"/>
+      <c r="L1" s="932"/>
+      <c r="M1" s="932"/>
     </row>
     <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="896" t="s">
+      <c r="A2" s="933" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="895"/>
-      <c r="C2" s="895"/>
-      <c r="D2" s="895"/>
-      <c r="E2" s="895"/>
-      <c r="F2" s="895"/>
-      <c r="G2" s="895"/>
-      <c r="H2" s="895"/>
-      <c r="I2" s="895"/>
-      <c r="J2" s="895"/>
-      <c r="K2" s="895"/>
-      <c r="L2" s="895"/>
-      <c r="M2" s="895"/>
+      <c r="B2" s="932"/>
+      <c r="C2" s="932"/>
+      <c r="D2" s="932"/>
+      <c r="E2" s="932"/>
+      <c r="F2" s="932"/>
+      <c r="G2" s="932"/>
+      <c r="H2" s="932"/>
+      <c r="I2" s="932"/>
+      <c r="J2" s="932"/>
+      <c r="K2" s="932"/>
+      <c r="L2" s="932"/>
+      <c r="M2" s="932"/>
     </row>
     <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="896" t="s">
+      <c r="A3" s="933" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="895"/>
-      <c r="C3" s="895"/>
-      <c r="D3" s="895"/>
-      <c r="E3" s="895"/>
-      <c r="F3" s="895"/>
-      <c r="G3" s="895"/>
-      <c r="H3" s="895"/>
-      <c r="I3" s="895"/>
-      <c r="J3" s="895"/>
-      <c r="K3" s="895"/>
-      <c r="L3" s="895"/>
-      <c r="M3" s="895"/>
+      <c r="B3" s="932"/>
+      <c r="C3" s="932"/>
+      <c r="D3" s="932"/>
+      <c r="E3" s="932"/>
+      <c r="F3" s="932"/>
+      <c r="G3" s="932"/>
+      <c r="H3" s="932"/>
+      <c r="I3" s="932"/>
+      <c r="J3" s="932"/>
+      <c r="K3" s="932"/>
+      <c r="L3" s="932"/>
+      <c r="M3" s="932"/>
     </row>
     <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="896" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="895"/>
-      <c r="C4" s="895"/>
-      <c r="D4" s="895"/>
-      <c r="E4" s="895"/>
-      <c r="F4" s="895"/>
-      <c r="G4" s="895"/>
-      <c r="H4" s="895"/>
-      <c r="I4" s="895"/>
-      <c r="J4" s="895"/>
-      <c r="K4" s="895"/>
-      <c r="L4" s="895"/>
-      <c r="M4" s="895"/>
+      <c r="A4" s="933" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="932"/>
+      <c r="C4" s="932"/>
+      <c r="D4" s="932"/>
+      <c r="E4" s="932"/>
+      <c r="F4" s="932"/>
+      <c r="G4" s="932"/>
+      <c r="H4" s="932"/>
+      <c r="I4" s="932"/>
+      <c r="J4" s="932"/>
+      <c r="K4" s="932"/>
+      <c r="L4" s="932"/>
+      <c r="M4" s="932"/>
     </row>
     <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="896" t="s">
+      <c r="A5" s="933" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="895"/>
-      <c r="C5" s="895"/>
-      <c r="D5" s="895"/>
-      <c r="E5" s="895"/>
-      <c r="F5" s="895"/>
-      <c r="G5" s="895"/>
-      <c r="H5" s="895"/>
-      <c r="I5" s="895"/>
-      <c r="J5" s="895"/>
-      <c r="K5" s="895"/>
-      <c r="L5" s="895"/>
-      <c r="M5" s="895"/>
+      <c r="B5" s="932"/>
+      <c r="C5" s="932"/>
+      <c r="D5" s="932"/>
+      <c r="E5" s="932"/>
+      <c r="F5" s="932"/>
+      <c r="G5" s="932"/>
+      <c r="H5" s="932"/>
+      <c r="I5" s="932"/>
+      <c r="J5" s="932"/>
+      <c r="K5" s="932"/>
+      <c r="L5" s="932"/>
+      <c r="M5" s="932"/>
     </row>
     <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="896" t="s">
+      <c r="A6" s="933" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="895"/>
-      <c r="C6" s="895"/>
-      <c r="D6" s="895"/>
-      <c r="E6" s="895"/>
-      <c r="F6" s="895"/>
-      <c r="G6" s="895"/>
-      <c r="H6" s="895"/>
-      <c r="I6" s="895"/>
-      <c r="J6" s="895"/>
-      <c r="K6" s="895"/>
-      <c r="L6" s="895"/>
-      <c r="M6" s="895"/>
+      <c r="B6" s="932"/>
+      <c r="C6" s="932"/>
+      <c r="D6" s="932"/>
+      <c r="E6" s="932"/>
+      <c r="F6" s="932"/>
+      <c r="G6" s="932"/>
+      <c r="H6" s="932"/>
+      <c r="I6" s="932"/>
+      <c r="J6" s="932"/>
+      <c r="K6" s="932"/>
+      <c r="L6" s="932"/>
+      <c r="M6" s="932"/>
     </row>
     <row r="7" spans="1:26" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -72829,8 +72869,2968 @@
         <v>36</v>
       </c>
     </row>
+    <row r="896" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A896" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B896" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C896" s="894">
+        <v>44002</v>
+      </c>
+      <c r="D896" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E896" s="5">
+        <v>12742</v>
+      </c>
+      <c r="F896" s="5">
+        <v>225</v>
+      </c>
+      <c r="G896" s="5">
+        <v>12</v>
+      </c>
+      <c r="H896" s="5">
+        <v>15</v>
+      </c>
+      <c r="I896" s="5">
+        <v>933</v>
+      </c>
+      <c r="J896" s="5">
+        <v>1923</v>
+      </c>
+      <c r="K896" s="5">
+        <v>460</v>
+      </c>
+      <c r="L896" s="5">
+        <v>1159</v>
+      </c>
+      <c r="M896" s="5">
+        <v>586</v>
+      </c>
+      <c r="N896" s="5">
+        <v>183</v>
+      </c>
+      <c r="O896" s="5">
+        <v>119</v>
+      </c>
+      <c r="P896" s="5">
+        <v>173</v>
+      </c>
+      <c r="Q896" s="5">
+        <v>421</v>
+      </c>
+      <c r="R896" s="5">
+        <v>82</v>
+      </c>
+      <c r="S896" s="5">
+        <v>893</v>
+      </c>
+      <c r="T896" s="5">
+        <v>810</v>
+      </c>
+      <c r="U896" s="5">
+        <v>2026</v>
+      </c>
+      <c r="V896" s="5">
+        <v>264</v>
+      </c>
+      <c r="W896" s="5">
+        <v>1679</v>
+      </c>
+      <c r="X896" s="5">
+        <v>395</v>
+      </c>
+      <c r="Y896" s="5">
+        <v>332</v>
+      </c>
+      <c r="Z896" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="897" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A897" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B897" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C897" s="895">
+        <v>44002</v>
+      </c>
+      <c r="D897" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E897" s="5">
+        <v>20</v>
+      </c>
+      <c r="F897" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G897" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H897" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I897" s="5">
+        <v>4</v>
+      </c>
+      <c r="J897" s="5">
+        <v>6</v>
+      </c>
+      <c r="K897" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L897" s="5">
+        <v>3</v>
+      </c>
+      <c r="M897" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N897" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O897" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P897" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q897" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R897" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S897" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T897" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U897" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V897" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W897" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X897" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y897" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z897" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="898" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A898" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B898" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C898" s="896">
+        <v>44002</v>
+      </c>
+      <c r="D898" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E898" s="5">
+        <v>196</v>
+      </c>
+      <c r="F898" s="5">
+        <v>5</v>
+      </c>
+      <c r="G898" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H898" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I898" s="5">
+        <v>12</v>
+      </c>
+      <c r="J898" s="5">
+        <v>41</v>
+      </c>
+      <c r="K898" s="5">
+        <v>5</v>
+      </c>
+      <c r="L898" s="5">
+        <v>9</v>
+      </c>
+      <c r="M898" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N898" s="5">
+        <v>3</v>
+      </c>
+      <c r="O898" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P898" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q898" s="5">
+        <v>11</v>
+      </c>
+      <c r="R898" s="5">
+        <v>3</v>
+      </c>
+      <c r="S898" s="5">
+        <v>10</v>
+      </c>
+      <c r="T898" s="5">
+        <v>23</v>
+      </c>
+      <c r="U898" s="5">
+        <v>28</v>
+      </c>
+      <c r="V898" s="5">
+        <v>4</v>
+      </c>
+      <c r="W898" s="5">
+        <v>32</v>
+      </c>
+      <c r="X898" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y898" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z898" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="899" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A899" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B899" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C899" s="897">
+        <v>44002</v>
+      </c>
+      <c r="D899" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E899" s="5">
+        <v>1206</v>
+      </c>
+      <c r="F899" s="5">
+        <v>6</v>
+      </c>
+      <c r="G899" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H899" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I899" s="5">
+        <v>134</v>
+      </c>
+      <c r="J899" s="5">
+        <v>180</v>
+      </c>
+      <c r="K899" s="5">
+        <v>66</v>
+      </c>
+      <c r="L899" s="5">
+        <v>118</v>
+      </c>
+      <c r="M899" s="5">
+        <v>50</v>
+      </c>
+      <c r="N899" s="5">
+        <v>15</v>
+      </c>
+      <c r="O899" s="5">
+        <v>17</v>
+      </c>
+      <c r="P899" s="5">
+        <v>23</v>
+      </c>
+      <c r="Q899" s="5">
+        <v>39</v>
+      </c>
+      <c r="R899" s="5">
+        <v>9</v>
+      </c>
+      <c r="S899" s="5">
+        <v>58</v>
+      </c>
+      <c r="T899" s="5">
+        <v>60</v>
+      </c>
+      <c r="U899" s="5">
+        <v>197</v>
+      </c>
+      <c r="V899" s="5">
+        <v>22</v>
+      </c>
+      <c r="W899" s="5">
+        <v>151</v>
+      </c>
+      <c r="X899" s="5">
+        <v>38</v>
+      </c>
+      <c r="Y899" s="5">
+        <v>21</v>
+      </c>
+      <c r="Z899" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="900" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A900" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B900" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C900" s="898">
+        <v>44002</v>
+      </c>
+      <c r="D900" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E900" s="5">
+        <v>104</v>
+      </c>
+      <c r="F900" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G900" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H900" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I900" s="5">
+        <v>6</v>
+      </c>
+      <c r="J900" s="5">
+        <v>4</v>
+      </c>
+      <c r="K900" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L900" s="5">
+        <v>12</v>
+      </c>
+      <c r="M900" s="5">
+        <v>3</v>
+      </c>
+      <c r="N900" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O900" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P900" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q900" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R900" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S900" s="5">
+        <v>4</v>
+      </c>
+      <c r="T900" s="5">
+        <v>4</v>
+      </c>
+      <c r="U900" s="5">
+        <v>25</v>
+      </c>
+      <c r="V900" s="5">
+        <v>4</v>
+      </c>
+      <c r="W900" s="5">
+        <v>32</v>
+      </c>
+      <c r="X900" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y900" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z900" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="901" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A901" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B901" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C901" s="899">
+        <v>44002</v>
+      </c>
+      <c r="D901" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E901" s="5">
+        <v>141</v>
+      </c>
+      <c r="F901" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G901" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H901" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I901" s="5">
+        <v>12</v>
+      </c>
+      <c r="J901" s="5">
+        <v>24</v>
+      </c>
+      <c r="K901" s="5">
+        <v>6</v>
+      </c>
+      <c r="L901" s="5">
+        <v>8</v>
+      </c>
+      <c r="M901" s="5">
+        <v>17</v>
+      </c>
+      <c r="N901" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O901" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P901" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q901" s="5">
+        <v>7</v>
+      </c>
+      <c r="R901" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S901" s="5">
+        <v>7</v>
+      </c>
+      <c r="T901" s="5">
+        <v>6</v>
+      </c>
+      <c r="U901" s="5">
+        <v>26</v>
+      </c>
+      <c r="V901" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W901" s="5">
+        <v>14</v>
+      </c>
+      <c r="X901" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y901" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z901" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="902" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A902" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B902" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C902" s="900">
+        <v>44002</v>
+      </c>
+      <c r="D902" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E902" s="5">
+        <v>131</v>
+      </c>
+      <c r="F902" s="5">
+        <v>3</v>
+      </c>
+      <c r="G902" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H902" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I902" s="5">
+        <v>8</v>
+      </c>
+      <c r="J902" s="5">
+        <v>11</v>
+      </c>
+      <c r="K902" s="5">
+        <v>3</v>
+      </c>
+      <c r="L902" s="5">
+        <v>14</v>
+      </c>
+      <c r="M902" s="5">
+        <v>8</v>
+      </c>
+      <c r="N902" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O902" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P902" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q902" s="5">
+        <v>3</v>
+      </c>
+      <c r="R902" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S902" s="5">
+        <v>12</v>
+      </c>
+      <c r="T902" s="5">
+        <v>9</v>
+      </c>
+      <c r="U902" s="5">
+        <v>24</v>
+      </c>
+      <c r="V902" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W902" s="5">
+        <v>20</v>
+      </c>
+      <c r="X902" s="5">
+        <v>6</v>
+      </c>
+      <c r="Y902" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z902" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="903" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A903" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B903" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C903" s="901">
+        <v>44002</v>
+      </c>
+      <c r="D903" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E903" s="5">
+        <v>48</v>
+      </c>
+      <c r="F903" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G903" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H903" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I903" s="5">
+        <v>6</v>
+      </c>
+      <c r="J903" s="5">
+        <v>9</v>
+      </c>
+      <c r="K903" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L903" s="5">
+        <v>4</v>
+      </c>
+      <c r="M903" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N903" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O903" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P903" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q903" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R903" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S903" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T903" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U903" s="5">
+        <v>4</v>
+      </c>
+      <c r="V903" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W903" s="5">
+        <v>3</v>
+      </c>
+      <c r="X903" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y903" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z903" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="904" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A904" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B904" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C904" s="902">
+        <v>44002</v>
+      </c>
+      <c r="D904" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E904" s="5">
+        <v>43</v>
+      </c>
+      <c r="F904" s="5">
+        <v>4</v>
+      </c>
+      <c r="G904" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H904" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I904" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J904" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K904" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L904" s="5">
+        <v>4</v>
+      </c>
+      <c r="M904" s="5">
+        <v>3</v>
+      </c>
+      <c r="N904" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O904" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P904" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q904" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R904" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S904" s="5">
+        <v>3</v>
+      </c>
+      <c r="T904" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U904" s="5">
+        <v>9</v>
+      </c>
+      <c r="V904" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W904" s="5">
+        <v>10</v>
+      </c>
+      <c r="X904" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y904" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z904" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="905" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A905" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B905" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C905" s="903">
+        <v>44002</v>
+      </c>
+      <c r="D905" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E905" s="5">
+        <v>489</v>
+      </c>
+      <c r="F905" s="5">
+        <v>5</v>
+      </c>
+      <c r="G905" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H905" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I905" s="5">
+        <v>39</v>
+      </c>
+      <c r="J905" s="5">
+        <v>76</v>
+      </c>
+      <c r="K905" s="5">
+        <v>21</v>
+      </c>
+      <c r="L905" s="5">
+        <v>38</v>
+      </c>
+      <c r="M905" s="5">
+        <v>16</v>
+      </c>
+      <c r="N905" s="5">
+        <v>4</v>
+      </c>
+      <c r="O905" s="5">
+        <v>5</v>
+      </c>
+      <c r="P905" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q905" s="5">
+        <v>26</v>
+      </c>
+      <c r="R905" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S905" s="5">
+        <v>31</v>
+      </c>
+      <c r="T905" s="5">
+        <v>38</v>
+      </c>
+      <c r="U905" s="5">
+        <v>70</v>
+      </c>
+      <c r="V905" s="5">
+        <v>15</v>
+      </c>
+      <c r="W905" s="5">
+        <v>66</v>
+      </c>
+      <c r="X905" s="5">
+        <v>13</v>
+      </c>
+      <c r="Y905" s="5">
+        <v>14</v>
+      </c>
+      <c r="Z905" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="906" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A906" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B906" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C906" s="904">
+        <v>44002</v>
+      </c>
+      <c r="D906" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E906" s="5">
+        <v>236</v>
+      </c>
+      <c r="F906" s="5">
+        <v>16</v>
+      </c>
+      <c r="G906" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H906" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I906" s="5">
+        <v>8</v>
+      </c>
+      <c r="J906" s="5">
+        <v>26</v>
+      </c>
+      <c r="K906" s="5">
+        <v>7</v>
+      </c>
+      <c r="L906" s="5">
+        <v>28</v>
+      </c>
+      <c r="M906" s="5">
+        <v>22</v>
+      </c>
+      <c r="N906" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O906" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P906" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q906" s="5">
+        <v>5</v>
+      </c>
+      <c r="R906" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S906" s="5">
+        <v>23</v>
+      </c>
+      <c r="T906" s="5">
+        <v>8</v>
+      </c>
+      <c r="U906" s="5">
+        <v>56</v>
+      </c>
+      <c r="V906" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W906" s="5">
+        <v>25</v>
+      </c>
+      <c r="X906" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y906" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z906" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="907" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A907" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B907" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C907" s="905">
+        <v>44002</v>
+      </c>
+      <c r="D907" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E907" s="5">
+        <v>5</v>
+      </c>
+      <c r="F907" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G907" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H907" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I907" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J907" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K907" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L907" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M907" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N907" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O907" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P907" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q907" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R907" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S907" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T907" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U907" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V907" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W907" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X907" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y907" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z907" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="908" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A908" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B908" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C908" s="906">
+        <v>44002</v>
+      </c>
+      <c r="D908" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E908" s="5">
+        <v>9</v>
+      </c>
+      <c r="F908" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G908" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H908" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I908" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J908" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K908" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L908" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M908" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N908" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O908" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P908" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q908" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R908" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S908" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T908" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U908" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V908" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W908" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X908" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y908" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z908" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="909" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A909" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B909" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C909" s="907">
+        <v>44002</v>
+      </c>
+      <c r="D909" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E909" s="5">
+        <v>7</v>
+      </c>
+      <c r="F909" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G909" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H909" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I909" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J909" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K909" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L909" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M909" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N909" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O909" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P909" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q909" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R909" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S909" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T909" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U909" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V909" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W909" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X909" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y909" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z909" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="910" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A910" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B910" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C910" s="908">
+        <v>44002</v>
+      </c>
+      <c r="D910" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E910" s="5">
+        <v>85</v>
+      </c>
+      <c r="F910" s="5">
+        <v>25</v>
+      </c>
+      <c r="G910" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H910" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I910" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J910" s="5">
+        <v>8</v>
+      </c>
+      <c r="K910" s="5">
+        <v>6</v>
+      </c>
+      <c r="L910" s="5">
+        <v>6</v>
+      </c>
+      <c r="M910" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N910" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O910" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P910" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q910" s="5">
+        <v>5</v>
+      </c>
+      <c r="R910" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S910" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T910" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U910" s="5">
+        <v>13</v>
+      </c>
+      <c r="V910" s="5">
+        <v>6</v>
+      </c>
+      <c r="W910" s="5">
+        <v>12</v>
+      </c>
+      <c r="X910" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y910" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z910" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="911" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A911" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B911" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C911" s="909">
+        <v>44002</v>
+      </c>
+      <c r="D911" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E911" s="5">
+        <v>572</v>
+      </c>
+      <c r="F911" s="5">
+        <v>11</v>
+      </c>
+      <c r="G911" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H911" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I911" s="5">
+        <v>43</v>
+      </c>
+      <c r="J911" s="5">
+        <v>70</v>
+      </c>
+      <c r="K911" s="5">
+        <v>15</v>
+      </c>
+      <c r="L911" s="5">
+        <v>66</v>
+      </c>
+      <c r="M911" s="5">
+        <v>31</v>
+      </c>
+      <c r="N911" s="5">
+        <v>4</v>
+      </c>
+      <c r="O911" s="5">
+        <v>9</v>
+      </c>
+      <c r="P911" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q911" s="5">
+        <v>11</v>
+      </c>
+      <c r="R911" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S911" s="5">
+        <v>31</v>
+      </c>
+      <c r="T911" s="5">
+        <v>31</v>
+      </c>
+      <c r="U911" s="5">
+        <v>97</v>
+      </c>
+      <c r="V911" s="5">
+        <v>17</v>
+      </c>
+      <c r="W911" s="5">
+        <v>95</v>
+      </c>
+      <c r="X911" s="5">
+        <v>19</v>
+      </c>
+      <c r="Y911" s="5">
+        <v>6</v>
+      </c>
+      <c r="Z911" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="912" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A912" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B912" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C912" s="910">
+        <v>44002</v>
+      </c>
+      <c r="D912" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E912" s="5">
+        <v>67</v>
+      </c>
+      <c r="F912" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G912" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H912" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I912" s="5">
+        <v>5</v>
+      </c>
+      <c r="J912" s="5">
+        <v>19</v>
+      </c>
+      <c r="K912" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L912" s="5">
+        <v>4</v>
+      </c>
+      <c r="M912" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N912" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O912" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P912" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q912" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R912" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S912" s="5">
+        <v>9</v>
+      </c>
+      <c r="T912" s="5">
+        <v>4</v>
+      </c>
+      <c r="U912" s="5">
+        <v>7</v>
+      </c>
+      <c r="V912" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W912" s="5">
+        <v>5</v>
+      </c>
+      <c r="X912" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y912" s="5">
+        <v>6</v>
+      </c>
+      <c r="Z912" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="913" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A913" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B913" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C913" s="911">
+        <v>44002</v>
+      </c>
+      <c r="D913" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E913" s="5">
+        <v>156</v>
+      </c>
+      <c r="F913" s="5">
+        <v>5</v>
+      </c>
+      <c r="G913" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H913" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I913" s="5">
+        <v>8</v>
+      </c>
+      <c r="J913" s="5">
+        <v>29</v>
+      </c>
+      <c r="K913" s="5">
+        <v>3</v>
+      </c>
+      <c r="L913" s="5">
+        <v>20</v>
+      </c>
+      <c r="M913" s="5">
+        <v>6</v>
+      </c>
+      <c r="N913" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O913" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P913" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q913" s="5">
+        <v>4</v>
+      </c>
+      <c r="R913" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S913" s="5">
+        <v>9</v>
+      </c>
+      <c r="T913" s="5">
+        <v>14</v>
+      </c>
+      <c r="U913" s="5">
+        <v>24</v>
+      </c>
+      <c r="V913" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W913" s="5">
+        <v>24</v>
+      </c>
+      <c r="X913" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y913" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z913" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="914" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A914" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B914" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C914" s="912">
+        <v>44002</v>
+      </c>
+      <c r="D914" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E914" s="5">
+        <v>200</v>
+      </c>
+      <c r="F914" s="5">
+        <v>8</v>
+      </c>
+      <c r="G914" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H914" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I914" s="5">
+        <v>13</v>
+      </c>
+      <c r="J914" s="5">
+        <v>55</v>
+      </c>
+      <c r="K914" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L914" s="5">
+        <v>18</v>
+      </c>
+      <c r="M914" s="5">
+        <v>6</v>
+      </c>
+      <c r="N914" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O914" s="5">
+        <v>4</v>
+      </c>
+      <c r="P914" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q914" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R914" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S914" s="5">
+        <v>16</v>
+      </c>
+      <c r="T914" s="5">
+        <v>16</v>
+      </c>
+      <c r="U914" s="5">
+        <v>35</v>
+      </c>
+      <c r="V914" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W914" s="5">
+        <v>15</v>
+      </c>
+      <c r="X914" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y914" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z914" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="915" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A915" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B915" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C915" s="913">
+        <v>44002</v>
+      </c>
+      <c r="D915" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E915" s="5">
+        <v>13</v>
+      </c>
+      <c r="F915" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G915" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H915" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I915" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J915" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K915" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L915" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M915" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N915" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O915" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P915" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q915" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R915" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S915" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T915" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U915" s="5">
+        <v>4</v>
+      </c>
+      <c r="V915" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W915" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X915" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y915" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z915" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="916" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A916" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B916" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C916" s="914">
+        <v>44002</v>
+      </c>
+      <c r="D916" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E916" s="5">
+        <v>857</v>
+      </c>
+      <c r="F916" s="5">
+        <v>17</v>
+      </c>
+      <c r="G916" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H916" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I916" s="5">
+        <v>76</v>
+      </c>
+      <c r="J916" s="5">
+        <v>64</v>
+      </c>
+      <c r="K916" s="5">
+        <v>33</v>
+      </c>
+      <c r="L916" s="5">
+        <v>87</v>
+      </c>
+      <c r="M916" s="5">
+        <v>29</v>
+      </c>
+      <c r="N916" s="5">
+        <v>10</v>
+      </c>
+      <c r="O916" s="5">
+        <v>5</v>
+      </c>
+      <c r="P916" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q916" s="5">
+        <v>29</v>
+      </c>
+      <c r="R916" s="5">
+        <v>3</v>
+      </c>
+      <c r="S916" s="5">
+        <v>51</v>
+      </c>
+      <c r="T916" s="5">
+        <v>84</v>
+      </c>
+      <c r="U916" s="5">
+        <v>159</v>
+      </c>
+      <c r="V916" s="5">
+        <v>12</v>
+      </c>
+      <c r="W916" s="5">
+        <v>135</v>
+      </c>
+      <c r="X916" s="5">
+        <v>33</v>
+      </c>
+      <c r="Y916" s="5">
+        <v>21</v>
+      </c>
+      <c r="Z916" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="917" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A917" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B917" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C917" s="915">
+        <v>44002</v>
+      </c>
+      <c r="D917" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E917" s="5">
+        <v>172</v>
+      </c>
+      <c r="F917" s="5">
+        <v>4</v>
+      </c>
+      <c r="G917" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H917" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I917" s="5">
+        <v>13</v>
+      </c>
+      <c r="J917" s="5">
+        <v>18</v>
+      </c>
+      <c r="K917" s="5">
+        <v>3</v>
+      </c>
+      <c r="L917" s="5">
+        <v>17</v>
+      </c>
+      <c r="M917" s="5">
+        <v>9</v>
+      </c>
+      <c r="N917" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O917" s="5">
+        <v>3</v>
+      </c>
+      <c r="P917" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q917" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R917" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S917" s="5">
+        <v>9</v>
+      </c>
+      <c r="T917" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U917" s="5">
+        <v>20</v>
+      </c>
+      <c r="V917" s="5">
+        <v>12</v>
+      </c>
+      <c r="W917" s="5">
+        <v>44</v>
+      </c>
+      <c r="X917" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y917" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z917" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="918" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A918" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B918" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C918" s="916">
+        <v>44002</v>
+      </c>
+      <c r="D918" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E918" s="5">
+        <v>473</v>
+      </c>
+      <c r="F918" s="5">
+        <v>12</v>
+      </c>
+      <c r="G918" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H918" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I918" s="5">
+        <v>31</v>
+      </c>
+      <c r="J918" s="5">
+        <v>213</v>
+      </c>
+      <c r="K918" s="5">
+        <v>7</v>
+      </c>
+      <c r="L918" s="5">
+        <v>39</v>
+      </c>
+      <c r="M918" s="5">
+        <v>6</v>
+      </c>
+      <c r="N918" s="5">
+        <v>8</v>
+      </c>
+      <c r="O918" s="5">
+        <v>4</v>
+      </c>
+      <c r="P918" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q918" s="5">
+        <v>11</v>
+      </c>
+      <c r="R918" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S918" s="5">
+        <v>18</v>
+      </c>
+      <c r="T918" s="5">
+        <v>22</v>
+      </c>
+      <c r="U918" s="5">
+        <v>55</v>
+      </c>
+      <c r="V918" s="5">
+        <v>8</v>
+      </c>
+      <c r="W918" s="5">
+        <v>19</v>
+      </c>
+      <c r="X918" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y918" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z918" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="919" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A919" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B919" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C919" s="917">
+        <v>44002</v>
+      </c>
+      <c r="D919" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E919" s="5">
+        <v>47</v>
+      </c>
+      <c r="F919" s="5">
+        <v>13</v>
+      </c>
+      <c r="G919" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H919" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I919" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J919" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K919" s="5">
+        <v>5</v>
+      </c>
+      <c r="L919" s="5">
+        <v>4</v>
+      </c>
+      <c r="M919" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N919" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O919" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P919" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q919" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R919" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S919" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T919" s="5">
+        <v>8</v>
+      </c>
+      <c r="U919" s="5">
+        <v>5</v>
+      </c>
+      <c r="V919" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W919" s="5">
+        <v>4</v>
+      </c>
+      <c r="X919" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y919" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z919" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="920" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A920" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B920" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C920" s="918">
+        <v>44002</v>
+      </c>
+      <c r="D920" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E920" s="5">
+        <v>952</v>
+      </c>
+      <c r="F920" s="5">
+        <v>24</v>
+      </c>
+      <c r="G920" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H920" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I920" s="5">
+        <v>99</v>
+      </c>
+      <c r="J920" s="5">
+        <v>116</v>
+      </c>
+      <c r="K920" s="5">
+        <v>18</v>
+      </c>
+      <c r="L920" s="5">
+        <v>119</v>
+      </c>
+      <c r="M920" s="5">
+        <v>36</v>
+      </c>
+      <c r="N920" s="5">
+        <v>6</v>
+      </c>
+      <c r="O920" s="5">
+        <v>7</v>
+      </c>
+      <c r="P920" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q920" s="5">
+        <v>23</v>
+      </c>
+      <c r="R920" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S920" s="5">
+        <v>56</v>
+      </c>
+      <c r="T920" s="5">
+        <v>131</v>
+      </c>
+      <c r="U920" s="5">
+        <v>129</v>
+      </c>
+      <c r="V920" s="5">
+        <v>15</v>
+      </c>
+      <c r="W920" s="5">
+        <v>90</v>
+      </c>
+      <c r="X920" s="5">
+        <v>25</v>
+      </c>
+      <c r="Y920" s="5">
+        <v>49</v>
+      </c>
+      <c r="Z920" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="921" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A921" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B921" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C921" s="919">
+        <v>44002</v>
+      </c>
+      <c r="D921" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E921" s="5">
+        <v>28</v>
+      </c>
+      <c r="F921" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G921" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H921" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I921" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J921" s="5">
+        <v>6</v>
+      </c>
+      <c r="K921" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L921" s="5">
+        <v>3</v>
+      </c>
+      <c r="M921" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N921" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O921" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P921" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q921" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R921" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S921" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T921" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U921" s="5">
+        <v>7</v>
+      </c>
+      <c r="V921" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W921" s="5">
+        <v>4</v>
+      </c>
+      <c r="X921" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y921" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z921" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="922" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A922" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B922" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C922" s="920">
+        <v>44002</v>
+      </c>
+      <c r="D922" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E922" s="5">
+        <v>2905</v>
+      </c>
+      <c r="F922" s="5">
+        <v>9</v>
+      </c>
+      <c r="G922" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H922" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I922" s="5">
+        <v>154</v>
+      </c>
+      <c r="J922" s="5">
+        <v>344</v>
+      </c>
+      <c r="K922" s="5">
+        <v>120</v>
+      </c>
+      <c r="L922" s="5">
+        <v>237</v>
+      </c>
+      <c r="M922" s="5">
+        <v>138</v>
+      </c>
+      <c r="N922" s="5">
+        <v>58</v>
+      </c>
+      <c r="O922" s="5">
+        <v>18</v>
+      </c>
+      <c r="P922" s="5">
+        <v>56</v>
+      </c>
+      <c r="Q922" s="5">
+        <v>139</v>
+      </c>
+      <c r="R922" s="5">
+        <v>26</v>
+      </c>
+      <c r="S922" s="5">
+        <v>238</v>
+      </c>
+      <c r="T922" s="5">
+        <v>178</v>
+      </c>
+      <c r="U922" s="5">
+        <v>476</v>
+      </c>
+      <c r="V922" s="5">
+        <v>81</v>
+      </c>
+      <c r="W922" s="5">
+        <v>427</v>
+      </c>
+      <c r="X922" s="5">
+        <v>118</v>
+      </c>
+      <c r="Y922" s="5">
+        <v>65</v>
+      </c>
+      <c r="Z922" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="923" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A923" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B923" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C923" s="921">
+        <v>44002</v>
+      </c>
+      <c r="D923" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E923" s="5">
+        <v>216</v>
+      </c>
+      <c r="F923" s="5">
+        <v>7</v>
+      </c>
+      <c r="G923" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H923" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I923" s="5">
+        <v>15</v>
+      </c>
+      <c r="J923" s="5">
+        <v>20</v>
+      </c>
+      <c r="K923" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L923" s="5">
+        <v>20</v>
+      </c>
+      <c r="M923" s="5">
+        <v>11</v>
+      </c>
+      <c r="N923" s="5">
+        <v>4</v>
+      </c>
+      <c r="O923" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P923" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q923" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R923" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S923" s="5">
+        <v>8</v>
+      </c>
+      <c r="T923" s="5">
+        <v>29</v>
+      </c>
+      <c r="U923" s="5">
+        <v>48</v>
+      </c>
+      <c r="V923" s="5">
+        <v>6</v>
+      </c>
+      <c r="W923" s="5">
+        <v>20</v>
+      </c>
+      <c r="X923" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y923" s="5">
+        <v>13</v>
+      </c>
+      <c r="Z923" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="924" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A924" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B924" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C924" s="922">
+        <v>44002</v>
+      </c>
+      <c r="D924" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y924" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z924" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="925" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A925" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B925" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C925" s="923">
+        <v>44002</v>
+      </c>
+      <c r="D925" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E925" s="5">
+        <v>57</v>
+      </c>
+      <c r="F925" s="5">
+        <v>4</v>
+      </c>
+      <c r="G925" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H925" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I925" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J925" s="5">
+        <v>4</v>
+      </c>
+      <c r="K925" s="5">
+        <v>3</v>
+      </c>
+      <c r="L925" s="5">
+        <v>6</v>
+      </c>
+      <c r="M925" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N925" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O925" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P925" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q925" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R925" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S925" s="5">
+        <v>6</v>
+      </c>
+      <c r="T925" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U925" s="5">
+        <v>15</v>
+      </c>
+      <c r="V925" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W925" s="5">
+        <v>7</v>
+      </c>
+      <c r="X925" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y925" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z925" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="926" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A926" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B926" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C926" s="924">
+        <v>44002</v>
+      </c>
+      <c r="D926" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E926" s="5">
+        <v>175</v>
+      </c>
+      <c r="F926" s="5">
+        <v>3</v>
+      </c>
+      <c r="G926" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H926" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I926" s="5">
+        <v>8</v>
+      </c>
+      <c r="J926" s="5">
+        <v>38</v>
+      </c>
+      <c r="K926" s="5">
+        <v>3</v>
+      </c>
+      <c r="L926" s="5">
+        <v>14</v>
+      </c>
+      <c r="M926" s="5">
+        <v>10</v>
+      </c>
+      <c r="N926" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O926" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P926" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q926" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R926" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S926" s="5">
+        <v>9</v>
+      </c>
+      <c r="T926" s="5">
+        <v>8</v>
+      </c>
+      <c r="U926" s="5">
+        <v>29</v>
+      </c>
+      <c r="V926" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W926" s="5">
+        <v>28</v>
+      </c>
+      <c r="X926" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y926" s="5">
+        <v>13</v>
+      </c>
+      <c r="Z926" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="927" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A927" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B927" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C927" s="925">
+        <v>44002</v>
+      </c>
+      <c r="D927" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E927" s="5">
+        <v>96</v>
+      </c>
+      <c r="F927" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G927" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H927" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I927" s="5">
+        <v>4</v>
+      </c>
+      <c r="J927" s="5">
+        <v>29</v>
+      </c>
+      <c r="K927" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L927" s="5">
+        <v>12</v>
+      </c>
+      <c r="M927" s="5">
+        <v>7</v>
+      </c>
+      <c r="N927" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O927" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P927" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q927" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R927" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S927" s="5">
+        <v>3</v>
+      </c>
+      <c r="T927" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U927" s="5">
+        <v>13</v>
+      </c>
+      <c r="V927" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W927" s="5">
+        <v>15</v>
+      </c>
+      <c r="X927" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y927" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z927" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="928" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A928" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B928" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C928" s="926">
+        <v>44002</v>
+      </c>
+      <c r="D928" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E928" s="5">
+        <v>10</v>
+      </c>
+      <c r="F928" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G928" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H928" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I928" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J928" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K928" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L928" s="5">
+        <v>3</v>
+      </c>
+      <c r="M928" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N928" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O928" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P928" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q928" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R928" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S928" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T928" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U928" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V928" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W928" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X928" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y928" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z928" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="929" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A929" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B929" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C929" s="927">
+        <v>44002</v>
+      </c>
+      <c r="D929" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E929" s="5">
+        <v>76</v>
+      </c>
+      <c r="F929" s="5">
+        <v>3</v>
+      </c>
+      <c r="G929" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H929" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I929" s="5">
+        <v>5</v>
+      </c>
+      <c r="J929" s="5">
+        <v>7</v>
+      </c>
+      <c r="K929" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L929" s="5">
+        <v>8</v>
+      </c>
+      <c r="M929" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N929" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O929" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P929" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q929" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R929" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S929" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T929" s="5">
+        <v>3</v>
+      </c>
+      <c r="U929" s="5">
+        <v>27</v>
+      </c>
+      <c r="V929" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W929" s="5">
+        <v>10</v>
+      </c>
+      <c r="X929" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y929" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z929" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="930" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A930" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B930" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C930" s="928">
+        <v>44002</v>
+      </c>
+      <c r="D930" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E930" s="5">
+        <v>1726</v>
+      </c>
+      <c r="F930" s="5">
+        <v>8</v>
+      </c>
+      <c r="G930" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H930" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I930" s="5">
+        <v>104</v>
+      </c>
+      <c r="J930" s="5">
+        <v>287</v>
+      </c>
+      <c r="K930" s="5">
+        <v>69</v>
+      </c>
+      <c r="L930" s="5">
+        <v>142</v>
+      </c>
+      <c r="M930" s="5">
+        <v>45</v>
+      </c>
+      <c r="N930" s="5">
+        <v>34</v>
+      </c>
+      <c r="O930" s="5">
+        <v>21</v>
+      </c>
+      <c r="P930" s="5">
+        <v>18</v>
+      </c>
+      <c r="Q930" s="5">
+        <v>60</v>
+      </c>
+      <c r="R930" s="5">
+        <v>22</v>
+      </c>
+      <c r="S930" s="5">
+        <v>179</v>
+      </c>
+      <c r="T930" s="5">
+        <v>84</v>
+      </c>
+      <c r="U930" s="5">
+        <v>247</v>
+      </c>
+      <c r="V930" s="5">
+        <v>39</v>
+      </c>
+      <c r="W930" s="5">
+        <v>244</v>
+      </c>
+      <c r="X930" s="5">
+        <v>62</v>
+      </c>
+      <c r="Y930" s="5">
+        <v>50</v>
+      </c>
+      <c r="Z930" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="931" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A931" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B931" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C931" s="929">
+        <v>44002</v>
+      </c>
+      <c r="D931" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y931" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z931" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="932" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A932" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B932" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C932" s="930">
+        <v>44002</v>
+      </c>
+      <c r="D932" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E932" s="5">
+        <v>295</v>
+      </c>
+      <c r="F932" s="5">
+        <v>7</v>
+      </c>
+      <c r="G932" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H932" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I932" s="5">
+        <v>19</v>
+      </c>
+      <c r="J932" s="5">
+        <v>80</v>
+      </c>
+      <c r="K932" s="5">
+        <v>8</v>
+      </c>
+      <c r="L932" s="5">
+        <v>24</v>
+      </c>
+      <c r="M932" s="5">
+        <v>19</v>
+      </c>
+      <c r="N932" s="5">
+        <v>5</v>
+      </c>
+      <c r="O932" s="5">
+        <v>3</v>
+      </c>
+      <c r="P932" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q932" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R932" s="5">
+        <v>3</v>
+      </c>
+      <c r="S932" s="5">
+        <v>17</v>
+      </c>
+      <c r="T932" s="5">
+        <v>8</v>
+      </c>
+      <c r="U932" s="5">
+        <v>55</v>
+      </c>
+      <c r="V932" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W932" s="5">
+        <v>28</v>
+      </c>
+      <c r="X932" s="5">
+        <v>8</v>
+      </c>
+      <c r="Y932" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z932" s="5">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A7:D895" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A7:D932" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="6">
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="A1:M1"/>

--- a/initial_claims/OR/OR_data.xlsx
+++ b/initial_claims/OR/OR_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/initial_claims/OR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA23BDDD-D609-9C41-A8B8-F3C19DBB212D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7698DCF-173F-2641-A038-56C0CB72FFD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,19 @@
     <sheet name="UI Weekly Claims" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UI Weekly Claims'!$A$7:$D$932</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UI Weekly Claims'!$A$7:$D$1043</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13242" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14928" uniqueCount="99">
   <si>
     <t>Oregon Initial Claims for Unemployment Insurance, Weekly, By Place of Residence</t>
   </si>
   <si>
-    <t>Downloaded: Jul 1, 2020 11:54 AM</t>
+    <t>Downloaded: Jul 21, 2020 1:47 PM</t>
   </si>
   <si>
     <t>Sources:</t>
@@ -312,6 +312,15 @@
   <si>
     <t>25</t>
   </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
 </sst>
 </file>
 
@@ -376,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="934">
+  <cellXfs count="1045">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -391,6 +400,117 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1635,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z932"/>
+  <dimension ref="A1:Z1043"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1648,106 +1768,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="931" t="s">
+      <c r="A1" s="1042" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="932"/>
-      <c r="C1" s="932"/>
-      <c r="D1" s="932"/>
-      <c r="E1" s="932"/>
-      <c r="F1" s="932"/>
-      <c r="G1" s="932"/>
-      <c r="H1" s="932"/>
-      <c r="I1" s="932"/>
-      <c r="J1" s="932"/>
-      <c r="K1" s="932"/>
-      <c r="L1" s="932"/>
-      <c r="M1" s="932"/>
+      <c r="B1" s="1043"/>
+      <c r="C1" s="1043"/>
+      <c r="D1" s="1043"/>
+      <c r="E1" s="1043"/>
+      <c r="F1" s="1043"/>
+      <c r="G1" s="1043"/>
+      <c r="H1" s="1043"/>
+      <c r="I1" s="1043"/>
+      <c r="J1" s="1043"/>
+      <c r="K1" s="1043"/>
+      <c r="L1" s="1043"/>
+      <c r="M1" s="1043"/>
     </row>
     <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="933" t="s">
+      <c r="A2" s="1044" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="932"/>
-      <c r="C2" s="932"/>
-      <c r="D2" s="932"/>
-      <c r="E2" s="932"/>
-      <c r="F2" s="932"/>
-      <c r="G2" s="932"/>
-      <c r="H2" s="932"/>
-      <c r="I2" s="932"/>
-      <c r="J2" s="932"/>
-      <c r="K2" s="932"/>
-      <c r="L2" s="932"/>
-      <c r="M2" s="932"/>
+      <c r="B2" s="1043"/>
+      <c r="C2" s="1043"/>
+      <c r="D2" s="1043"/>
+      <c r="E2" s="1043"/>
+      <c r="F2" s="1043"/>
+      <c r="G2" s="1043"/>
+      <c r="H2" s="1043"/>
+      <c r="I2" s="1043"/>
+      <c r="J2" s="1043"/>
+      <c r="K2" s="1043"/>
+      <c r="L2" s="1043"/>
+      <c r="M2" s="1043"/>
     </row>
     <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="933" t="s">
+      <c r="A3" s="1044" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="932"/>
-      <c r="C3" s="932"/>
-      <c r="D3" s="932"/>
-      <c r="E3" s="932"/>
-      <c r="F3" s="932"/>
-      <c r="G3" s="932"/>
-      <c r="H3" s="932"/>
-      <c r="I3" s="932"/>
-      <c r="J3" s="932"/>
-      <c r="K3" s="932"/>
-      <c r="L3" s="932"/>
-      <c r="M3" s="932"/>
+      <c r="B3" s="1043"/>
+      <c r="C3" s="1043"/>
+      <c r="D3" s="1043"/>
+      <c r="E3" s="1043"/>
+      <c r="F3" s="1043"/>
+      <c r="G3" s="1043"/>
+      <c r="H3" s="1043"/>
+      <c r="I3" s="1043"/>
+      <c r="J3" s="1043"/>
+      <c r="K3" s="1043"/>
+      <c r="L3" s="1043"/>
+      <c r="M3" s="1043"/>
     </row>
     <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="933" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="932"/>
-      <c r="C4" s="932"/>
-      <c r="D4" s="932"/>
-      <c r="E4" s="932"/>
-      <c r="F4" s="932"/>
-      <c r="G4" s="932"/>
-      <c r="H4" s="932"/>
-      <c r="I4" s="932"/>
-      <c r="J4" s="932"/>
-      <c r="K4" s="932"/>
-      <c r="L4" s="932"/>
-      <c r="M4" s="932"/>
+      <c r="A4" s="1044" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1043"/>
+      <c r="C4" s="1043"/>
+      <c r="D4" s="1043"/>
+      <c r="E4" s="1043"/>
+      <c r="F4" s="1043"/>
+      <c r="G4" s="1043"/>
+      <c r="H4" s="1043"/>
+      <c r="I4" s="1043"/>
+      <c r="J4" s="1043"/>
+      <c r="K4" s="1043"/>
+      <c r="L4" s="1043"/>
+      <c r="M4" s="1043"/>
     </row>
     <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="933" t="s">
+      <c r="A5" s="1044" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="932"/>
-      <c r="C5" s="932"/>
-      <c r="D5" s="932"/>
-      <c r="E5" s="932"/>
-      <c r="F5" s="932"/>
-      <c r="G5" s="932"/>
-      <c r="H5" s="932"/>
-      <c r="I5" s="932"/>
-      <c r="J5" s="932"/>
-      <c r="K5" s="932"/>
-      <c r="L5" s="932"/>
-      <c r="M5" s="932"/>
+      <c r="B5" s="1043"/>
+      <c r="C5" s="1043"/>
+      <c r="D5" s="1043"/>
+      <c r="E5" s="1043"/>
+      <c r="F5" s="1043"/>
+      <c r="G5" s="1043"/>
+      <c r="H5" s="1043"/>
+      <c r="I5" s="1043"/>
+      <c r="J5" s="1043"/>
+      <c r="K5" s="1043"/>
+      <c r="L5" s="1043"/>
+      <c r="M5" s="1043"/>
     </row>
     <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="933" t="s">
+      <c r="A6" s="1044" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="932"/>
-      <c r="C6" s="932"/>
-      <c r="D6" s="932"/>
-      <c r="E6" s="932"/>
-      <c r="F6" s="932"/>
-      <c r="G6" s="932"/>
-      <c r="H6" s="932"/>
-      <c r="I6" s="932"/>
-      <c r="J6" s="932"/>
-      <c r="K6" s="932"/>
-      <c r="L6" s="932"/>
-      <c r="M6" s="932"/>
+      <c r="B6" s="1043"/>
+      <c r="C6" s="1043"/>
+      <c r="D6" s="1043"/>
+      <c r="E6" s="1043"/>
+      <c r="F6" s="1043"/>
+      <c r="G6" s="1043"/>
+      <c r="H6" s="1043"/>
+      <c r="I6" s="1043"/>
+      <c r="J6" s="1043"/>
+      <c r="K6" s="1043"/>
+      <c r="L6" s="1043"/>
+      <c r="M6" s="1043"/>
     </row>
     <row r="7" spans="1:26" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -75829,8 +75949,8888 @@
         <v>3</v>
       </c>
     </row>
+    <row r="933" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A933" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B933" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C933" s="931">
+        <v>44009</v>
+      </c>
+      <c r="D933" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E933" s="5">
+        <v>8464</v>
+      </c>
+      <c r="F933" s="5">
+        <v>147</v>
+      </c>
+      <c r="G933" s="5">
+        <v>8</v>
+      </c>
+      <c r="H933" s="5">
+        <v>9</v>
+      </c>
+      <c r="I933" s="5">
+        <v>710</v>
+      </c>
+      <c r="J933" s="5">
+        <v>1384</v>
+      </c>
+      <c r="K933" s="5">
+        <v>268</v>
+      </c>
+      <c r="L933" s="5">
+        <v>751</v>
+      </c>
+      <c r="M933" s="5">
+        <v>426</v>
+      </c>
+      <c r="N933" s="5">
+        <v>146</v>
+      </c>
+      <c r="O933" s="5">
+        <v>76</v>
+      </c>
+      <c r="P933" s="5">
+        <v>128</v>
+      </c>
+      <c r="Q933" s="5">
+        <v>288</v>
+      </c>
+      <c r="R933" s="5">
+        <v>45</v>
+      </c>
+      <c r="S933" s="5">
+        <v>573</v>
+      </c>
+      <c r="T933" s="5">
+        <v>472</v>
+      </c>
+      <c r="U933" s="5">
+        <v>1252</v>
+      </c>
+      <c r="V933" s="5">
+        <v>181</v>
+      </c>
+      <c r="W933" s="5">
+        <v>1094</v>
+      </c>
+      <c r="X933" s="5">
+        <v>286</v>
+      </c>
+      <c r="Y933" s="5">
+        <v>189</v>
+      </c>
+      <c r="Z933" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="934" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A934" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B934" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C934" s="932">
+        <v>44009</v>
+      </c>
+      <c r="D934" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E934" s="5">
+        <v>14</v>
+      </c>
+      <c r="F934" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G934" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H934" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I934" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J934" s="5">
+        <v>5</v>
+      </c>
+      <c r="K934" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L934" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M934" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N934" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O934" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P934" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q934" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R934" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S934" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T934" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U934" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V934" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W934" s="5">
+        <v>3</v>
+      </c>
+      <c r="X934" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y934" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z934" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="935" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A935" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B935" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C935" s="933">
+        <v>44009</v>
+      </c>
+      <c r="D935" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E935" s="5">
+        <v>113</v>
+      </c>
+      <c r="F935" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G935" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H935" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I935" s="5">
+        <v>7</v>
+      </c>
+      <c r="J935" s="5">
+        <v>7</v>
+      </c>
+      <c r="K935" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L935" s="5">
+        <v>12</v>
+      </c>
+      <c r="M935" s="5">
+        <v>5</v>
+      </c>
+      <c r="N935" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O935" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P935" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q935" s="5">
+        <v>6</v>
+      </c>
+      <c r="R935" s="5">
+        <v>3</v>
+      </c>
+      <c r="S935" s="5">
+        <v>5</v>
+      </c>
+      <c r="T935" s="5">
+        <v>20</v>
+      </c>
+      <c r="U935" s="5">
+        <v>21</v>
+      </c>
+      <c r="V935" s="5">
+        <v>3</v>
+      </c>
+      <c r="W935" s="5">
+        <v>15</v>
+      </c>
+      <c r="X935" s="5">
+        <v>6</v>
+      </c>
+      <c r="Y935" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z935" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="936" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A936" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B936" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C936" s="934">
+        <v>44009</v>
+      </c>
+      <c r="D936" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E936" s="5">
+        <v>836</v>
+      </c>
+      <c r="F936" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G936" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H936" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I936" s="5">
+        <v>78</v>
+      </c>
+      <c r="J936" s="5">
+        <v>186</v>
+      </c>
+      <c r="K936" s="5">
+        <v>38</v>
+      </c>
+      <c r="L936" s="5">
+        <v>67</v>
+      </c>
+      <c r="M936" s="5">
+        <v>51</v>
+      </c>
+      <c r="N936" s="5">
+        <v>9</v>
+      </c>
+      <c r="O936" s="5">
+        <v>4</v>
+      </c>
+      <c r="P936" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q936" s="5">
+        <v>38</v>
+      </c>
+      <c r="R936" s="5">
+        <v>4</v>
+      </c>
+      <c r="S936" s="5">
+        <v>37</v>
+      </c>
+      <c r="T936" s="5">
+        <v>36</v>
+      </c>
+      <c r="U936" s="5">
+        <v>116</v>
+      </c>
+      <c r="V936" s="5">
+        <v>27</v>
+      </c>
+      <c r="W936" s="5">
+        <v>83</v>
+      </c>
+      <c r="X936" s="5">
+        <v>38</v>
+      </c>
+      <c r="Y936" s="5">
+        <v>8</v>
+      </c>
+      <c r="Z936" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="937" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A937" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B937" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C937" s="935">
+        <v>44009</v>
+      </c>
+      <c r="D937" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E937" s="5">
+        <v>72</v>
+      </c>
+      <c r="F937" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G937" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H937" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I937" s="5">
+        <v>6</v>
+      </c>
+      <c r="J937" s="5">
+        <v>6</v>
+      </c>
+      <c r="K937" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L937" s="5">
+        <v>7</v>
+      </c>
+      <c r="M937" s="5">
+        <v>4</v>
+      </c>
+      <c r="N937" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O937" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P937" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q937" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R937" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S937" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T937" s="5">
+        <v>6</v>
+      </c>
+      <c r="U937" s="5">
+        <v>9</v>
+      </c>
+      <c r="V937" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W937" s="5">
+        <v>18</v>
+      </c>
+      <c r="X937" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y937" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z937" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="938" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A938" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B938" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C938" s="936">
+        <v>44009</v>
+      </c>
+      <c r="D938" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E938" s="5">
+        <v>112</v>
+      </c>
+      <c r="F938" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G938" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H938" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I938" s="5">
+        <v>17</v>
+      </c>
+      <c r="J938" s="5">
+        <v>24</v>
+      </c>
+      <c r="K938" s="5">
+        <v>5</v>
+      </c>
+      <c r="L938" s="5">
+        <v>9</v>
+      </c>
+      <c r="M938" s="5">
+        <v>9</v>
+      </c>
+      <c r="N938" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O938" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P938" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q938" s="5">
+        <v>4</v>
+      </c>
+      <c r="R938" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S938" s="5">
+        <v>4</v>
+      </c>
+      <c r="T938" s="5">
+        <v>4</v>
+      </c>
+      <c r="U938" s="5">
+        <v>13</v>
+      </c>
+      <c r="V938" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W938" s="5">
+        <v>8</v>
+      </c>
+      <c r="X938" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y938" s="5">
+        <v>6</v>
+      </c>
+      <c r="Z938" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="939" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A939" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B939" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C939" s="937">
+        <v>44009</v>
+      </c>
+      <c r="D939" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E939" s="5">
+        <v>89</v>
+      </c>
+      <c r="F939" s="5">
+        <v>6</v>
+      </c>
+      <c r="G939" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H939" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I939" s="5">
+        <v>7</v>
+      </c>
+      <c r="J939" s="5">
+        <v>7</v>
+      </c>
+      <c r="K939" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L939" s="5">
+        <v>8</v>
+      </c>
+      <c r="M939" s="5">
+        <v>10</v>
+      </c>
+      <c r="N939" s="5">
+        <v>6</v>
+      </c>
+      <c r="O939" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P939" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q939" s="5">
+        <v>3</v>
+      </c>
+      <c r="R939" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S939" s="5">
+        <v>9</v>
+      </c>
+      <c r="T939" s="5">
+        <v>6</v>
+      </c>
+      <c r="U939" s="5">
+        <v>13</v>
+      </c>
+      <c r="V939" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W939" s="5">
+        <v>6</v>
+      </c>
+      <c r="X939" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y939" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z939" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="940" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A940" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B940" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C940" s="938">
+        <v>44009</v>
+      </c>
+      <c r="D940" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E940" s="5">
+        <v>30</v>
+      </c>
+      <c r="F940" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G940" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H940" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I940" s="5">
+        <v>4</v>
+      </c>
+      <c r="J940" s="5">
+        <v>7</v>
+      </c>
+      <c r="K940" s="5">
+        <v>3</v>
+      </c>
+      <c r="L940" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M940" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N940" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O940" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P940" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q940" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R940" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S940" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T940" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U940" s="5">
+        <v>6</v>
+      </c>
+      <c r="V940" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W940" s="5">
+        <v>3</v>
+      </c>
+      <c r="X940" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y940" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z940" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="941" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A941" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B941" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C941" s="939">
+        <v>44009</v>
+      </c>
+      <c r="D941" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E941" s="5">
+        <v>24</v>
+      </c>
+      <c r="F941" s="5">
+        <v>5</v>
+      </c>
+      <c r="G941" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H941" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I941" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J941" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K941" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L941" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M941" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N941" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O941" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P941" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q941" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R941" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S941" s="5">
+        <v>3</v>
+      </c>
+      <c r="T941" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U941" s="5">
+        <v>4</v>
+      </c>
+      <c r="V941" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W941" s="5">
+        <v>5</v>
+      </c>
+      <c r="X941" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y941" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z941" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="942" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A942" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B942" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C942" s="940">
+        <v>44009</v>
+      </c>
+      <c r="D942" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E942" s="5">
+        <v>347</v>
+      </c>
+      <c r="F942" s="5">
+        <v>6</v>
+      </c>
+      <c r="G942" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H942" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I942" s="5">
+        <v>34</v>
+      </c>
+      <c r="J942" s="5">
+        <v>71</v>
+      </c>
+      <c r="K942" s="5">
+        <v>10</v>
+      </c>
+      <c r="L942" s="5">
+        <v>35</v>
+      </c>
+      <c r="M942" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N942" s="5">
+        <v>8</v>
+      </c>
+      <c r="O942" s="5">
+        <v>4</v>
+      </c>
+      <c r="P942" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q942" s="5">
+        <v>6</v>
+      </c>
+      <c r="R942" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S942" s="5">
+        <v>18</v>
+      </c>
+      <c r="T942" s="5">
+        <v>28</v>
+      </c>
+      <c r="U942" s="5">
+        <v>40</v>
+      </c>
+      <c r="V942" s="5">
+        <v>10</v>
+      </c>
+      <c r="W942" s="5">
+        <v>51</v>
+      </c>
+      <c r="X942" s="5">
+        <v>8</v>
+      </c>
+      <c r="Y942" s="5">
+        <v>7</v>
+      </c>
+      <c r="Z942" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="943" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A943" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B943" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C943" s="941">
+        <v>44009</v>
+      </c>
+      <c r="D943" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E943" s="5">
+        <v>150</v>
+      </c>
+      <c r="F943" s="5">
+        <v>9</v>
+      </c>
+      <c r="G943" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H943" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I943" s="5">
+        <v>6</v>
+      </c>
+      <c r="J943" s="5">
+        <v>25</v>
+      </c>
+      <c r="K943" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L943" s="5">
+        <v>11</v>
+      </c>
+      <c r="M943" s="5">
+        <v>18</v>
+      </c>
+      <c r="N943" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O943" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P943" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q943" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R943" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S943" s="5">
+        <v>13</v>
+      </c>
+      <c r="T943" s="5">
+        <v>12</v>
+      </c>
+      <c r="U943" s="5">
+        <v>31</v>
+      </c>
+      <c r="V943" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W943" s="5">
+        <v>12</v>
+      </c>
+      <c r="X943" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y943" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z943" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="944" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A944" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B944" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C944" s="942">
+        <v>44009</v>
+      </c>
+      <c r="D944" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E944" s="5">
+        <v>4</v>
+      </c>
+      <c r="F944" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G944" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H944" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I944" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J944" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K944" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L944" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M944" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N944" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O944" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P944" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q944" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R944" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S944" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T944" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U944" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V944" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W944" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X944" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y944" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z944" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="945" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A945" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B945" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C945" s="943">
+        <v>44009</v>
+      </c>
+      <c r="D945" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E945" s="5">
+        <v>5</v>
+      </c>
+      <c r="F945" s="5">
+        <v>3</v>
+      </c>
+      <c r="G945" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H945" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I945" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J945" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K945" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L945" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M945" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N945" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O945" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P945" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q945" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R945" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S945" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T945" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U945" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V945" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W945" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X945" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y945" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z945" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="946" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A946" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B946" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C946" s="944">
+        <v>44009</v>
+      </c>
+      <c r="D946" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E946" s="5">
+        <v>8</v>
+      </c>
+      <c r="F946" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G946" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H946" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I946" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J946" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K946" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L946" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M946" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N946" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O946" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P946" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q946" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R946" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S946" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T946" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U946" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V946" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W946" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X946" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y946" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z946" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="947" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A947" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B947" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C947" s="945">
+        <v>44009</v>
+      </c>
+      <c r="D947" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E947" s="5">
+        <v>55</v>
+      </c>
+      <c r="F947" s="5">
+        <v>8</v>
+      </c>
+      <c r="G947" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H947" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I947" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J947" s="5">
+        <v>6</v>
+      </c>
+      <c r="K947" s="5">
+        <v>6</v>
+      </c>
+      <c r="L947" s="5">
+        <v>4</v>
+      </c>
+      <c r="M947" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N947" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O947" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P947" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q947" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R947" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S947" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T947" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U947" s="5">
+        <v>14</v>
+      </c>
+      <c r="V947" s="5">
+        <v>5</v>
+      </c>
+      <c r="W947" s="5">
+        <v>6</v>
+      </c>
+      <c r="X947" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y947" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z947" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="948" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A948" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B948" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C948" s="946">
+        <v>44009</v>
+      </c>
+      <c r="D948" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E948" s="5">
+        <v>419</v>
+      </c>
+      <c r="F948" s="5">
+        <v>8</v>
+      </c>
+      <c r="G948" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H948" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I948" s="5">
+        <v>27</v>
+      </c>
+      <c r="J948" s="5">
+        <v>52</v>
+      </c>
+      <c r="K948" s="5">
+        <v>6</v>
+      </c>
+      <c r="L948" s="5">
+        <v>71</v>
+      </c>
+      <c r="M948" s="5">
+        <v>24</v>
+      </c>
+      <c r="N948" s="5">
+        <v>10</v>
+      </c>
+      <c r="O948" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P948" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q948" s="5">
+        <v>14</v>
+      </c>
+      <c r="R948" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S948" s="5">
+        <v>22</v>
+      </c>
+      <c r="T948" s="5">
+        <v>18</v>
+      </c>
+      <c r="U948" s="5">
+        <v>70</v>
+      </c>
+      <c r="V948" s="5">
+        <v>15</v>
+      </c>
+      <c r="W948" s="5">
+        <v>63</v>
+      </c>
+      <c r="X948" s="5">
+        <v>6</v>
+      </c>
+      <c r="Y948" s="5">
+        <v>8</v>
+      </c>
+      <c r="Z948" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="949" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A949" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B949" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C949" s="947">
+        <v>44009</v>
+      </c>
+      <c r="D949" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E949" s="5">
+        <v>42</v>
+      </c>
+      <c r="F949" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G949" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H949" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I949" s="5">
+        <v>3</v>
+      </c>
+      <c r="J949" s="5">
+        <v>14</v>
+      </c>
+      <c r="K949" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L949" s="5">
+        <v>6</v>
+      </c>
+      <c r="M949" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N949" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O949" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P949" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q949" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R949" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S949" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T949" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U949" s="5">
+        <v>6</v>
+      </c>
+      <c r="V949" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W949" s="5">
+        <v>5</v>
+      </c>
+      <c r="X949" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y949" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z949" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="950" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A950" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B950" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C950" s="948">
+        <v>44009</v>
+      </c>
+      <c r="D950" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E950" s="5">
+        <v>115</v>
+      </c>
+      <c r="F950" s="5">
+        <v>8</v>
+      </c>
+      <c r="G950" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H950" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I950" s="5">
+        <v>10</v>
+      </c>
+      <c r="J950" s="5">
+        <v>15</v>
+      </c>
+      <c r="K950" s="5">
+        <v>3</v>
+      </c>
+      <c r="L950" s="5">
+        <v>9</v>
+      </c>
+      <c r="M950" s="5">
+        <v>5</v>
+      </c>
+      <c r="N950" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O950" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P950" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q950" s="5">
+        <v>3</v>
+      </c>
+      <c r="R950" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S950" s="5">
+        <v>13</v>
+      </c>
+      <c r="T950" s="5">
+        <v>3</v>
+      </c>
+      <c r="U950" s="5">
+        <v>17</v>
+      </c>
+      <c r="V950" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W950" s="5">
+        <v>17</v>
+      </c>
+      <c r="X950" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y950" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z950" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="951" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A951" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B951" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C951" s="949">
+        <v>44009</v>
+      </c>
+      <c r="D951" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E951" s="5">
+        <v>189</v>
+      </c>
+      <c r="F951" s="5">
+        <v>9</v>
+      </c>
+      <c r="G951" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H951" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I951" s="5">
+        <v>14</v>
+      </c>
+      <c r="J951" s="5">
+        <v>72</v>
+      </c>
+      <c r="K951" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L951" s="5">
+        <v>14</v>
+      </c>
+      <c r="M951" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N951" s="5">
+        <v>5</v>
+      </c>
+      <c r="O951" s="5">
+        <v>3</v>
+      </c>
+      <c r="P951" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q951" s="5">
+        <v>3</v>
+      </c>
+      <c r="R951" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S951" s="5">
+        <v>13</v>
+      </c>
+      <c r="T951" s="5">
+        <v>5</v>
+      </c>
+      <c r="U951" s="5">
+        <v>25</v>
+      </c>
+      <c r="V951" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W951" s="5">
+        <v>20</v>
+      </c>
+      <c r="X951" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y951" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z951" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="952" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A952" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B952" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C952" s="950">
+        <v>44009</v>
+      </c>
+      <c r="D952" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y952" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z952" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="953" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A953" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B953" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C953" s="951">
+        <v>44009</v>
+      </c>
+      <c r="D953" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E953" s="5">
+        <v>649</v>
+      </c>
+      <c r="F953" s="5">
+        <v>7</v>
+      </c>
+      <c r="G953" s="5">
+        <v>3</v>
+      </c>
+      <c r="H953" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I953" s="5">
+        <v>58</v>
+      </c>
+      <c r="J953" s="5">
+        <v>69</v>
+      </c>
+      <c r="K953" s="5">
+        <v>25</v>
+      </c>
+      <c r="L953" s="5">
+        <v>67</v>
+      </c>
+      <c r="M953" s="5">
+        <v>30</v>
+      </c>
+      <c r="N953" s="5">
+        <v>9</v>
+      </c>
+      <c r="O953" s="5">
+        <v>11</v>
+      </c>
+      <c r="P953" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q953" s="5">
+        <v>13</v>
+      </c>
+      <c r="R953" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S953" s="5">
+        <v>46</v>
+      </c>
+      <c r="T953" s="5">
+        <v>48</v>
+      </c>
+      <c r="U953" s="5">
+        <v>107</v>
+      </c>
+      <c r="V953" s="5">
+        <v>11</v>
+      </c>
+      <c r="W953" s="5">
+        <v>106</v>
+      </c>
+      <c r="X953" s="5">
+        <v>25</v>
+      </c>
+      <c r="Y953" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z953" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="954" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A954" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B954" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C954" s="952">
+        <v>44009</v>
+      </c>
+      <c r="D954" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E954" s="5">
+        <v>118</v>
+      </c>
+      <c r="F954" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G954" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H954" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I954" s="5">
+        <v>5</v>
+      </c>
+      <c r="J954" s="5">
+        <v>4</v>
+      </c>
+      <c r="K954" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L954" s="5">
+        <v>15</v>
+      </c>
+      <c r="M954" s="5">
+        <v>6</v>
+      </c>
+      <c r="N954" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O954" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P954" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q954" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R954" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S954" s="5">
+        <v>3</v>
+      </c>
+      <c r="T954" s="5">
+        <v>4</v>
+      </c>
+      <c r="U954" s="5">
+        <v>20</v>
+      </c>
+      <c r="V954" s="5">
+        <v>9</v>
+      </c>
+      <c r="W954" s="5">
+        <v>32</v>
+      </c>
+      <c r="X954" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y954" s="5">
+        <v>7</v>
+      </c>
+      <c r="Z954" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="955" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A955" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B955" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C955" s="953">
+        <v>44009</v>
+      </c>
+      <c r="D955" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E955" s="5">
+        <v>262</v>
+      </c>
+      <c r="F955" s="5">
+        <v>9</v>
+      </c>
+      <c r="G955" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H955" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I955" s="5">
+        <v>37</v>
+      </c>
+      <c r="J955" s="5">
+        <v>61</v>
+      </c>
+      <c r="K955" s="5">
+        <v>7</v>
+      </c>
+      <c r="L955" s="5">
+        <v>16</v>
+      </c>
+      <c r="M955" s="5">
+        <v>9</v>
+      </c>
+      <c r="N955" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O955" s="5">
+        <v>3</v>
+      </c>
+      <c r="P955" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q955" s="5">
+        <v>7</v>
+      </c>
+      <c r="R955" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S955" s="5">
+        <v>21</v>
+      </c>
+      <c r="T955" s="5">
+        <v>19</v>
+      </c>
+      <c r="U955" s="5">
+        <v>30</v>
+      </c>
+      <c r="V955" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W955" s="5">
+        <v>25</v>
+      </c>
+      <c r="X955" s="5">
+        <v>7</v>
+      </c>
+      <c r="Y955" s="5">
+        <v>6</v>
+      </c>
+      <c r="Z955" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="956" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A956" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B956" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C956" s="954">
+        <v>44009</v>
+      </c>
+      <c r="D956" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E956" s="5">
+        <v>30</v>
+      </c>
+      <c r="F956" s="5">
+        <v>6</v>
+      </c>
+      <c r="G956" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H956" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I956" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J956" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K956" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L956" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M956" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N956" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O956" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P956" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q956" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R956" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S956" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T956" s="5">
+        <v>3</v>
+      </c>
+      <c r="U956" s="5">
+        <v>9</v>
+      </c>
+      <c r="V956" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W956" s="5">
+        <v>4</v>
+      </c>
+      <c r="X956" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y956" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z956" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="957" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A957" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B957" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C957" s="955">
+        <v>44009</v>
+      </c>
+      <c r="D957" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E957" s="5">
+        <v>563</v>
+      </c>
+      <c r="F957" s="5">
+        <v>15</v>
+      </c>
+      <c r="G957" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H957" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I957" s="5">
+        <v>59</v>
+      </c>
+      <c r="J957" s="5">
+        <v>75</v>
+      </c>
+      <c r="K957" s="5">
+        <v>11</v>
+      </c>
+      <c r="L957" s="5">
+        <v>55</v>
+      </c>
+      <c r="M957" s="5">
+        <v>21</v>
+      </c>
+      <c r="N957" s="5">
+        <v>7</v>
+      </c>
+      <c r="O957" s="5">
+        <v>3</v>
+      </c>
+      <c r="P957" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q957" s="5">
+        <v>14</v>
+      </c>
+      <c r="R957" s="5">
+        <v>3</v>
+      </c>
+      <c r="S957" s="5">
+        <v>40</v>
+      </c>
+      <c r="T957" s="5">
+        <v>40</v>
+      </c>
+      <c r="U957" s="5">
+        <v>82</v>
+      </c>
+      <c r="V957" s="5">
+        <v>11</v>
+      </c>
+      <c r="W957" s="5">
+        <v>73</v>
+      </c>
+      <c r="X957" s="5">
+        <v>18</v>
+      </c>
+      <c r="Y957" s="5">
+        <v>23</v>
+      </c>
+      <c r="Z957" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="958" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A958" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B958" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C958" s="956">
+        <v>44009</v>
+      </c>
+      <c r="D958" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E958" s="5">
+        <v>18</v>
+      </c>
+      <c r="F958" s="5">
+        <v>4</v>
+      </c>
+      <c r="G958" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H958" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I958" s="5">
+        <v>3</v>
+      </c>
+      <c r="J958" s="5">
+        <v>7</v>
+      </c>
+      <c r="K958" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L958" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M958" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N958" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O958" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P958" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q958" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R958" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S958" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T958" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U958" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V958" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W958" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X958" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y958" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z958" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="959" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A959" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B959" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C959" s="957">
+        <v>44009</v>
+      </c>
+      <c r="D959" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E959" s="5">
+        <v>1889</v>
+      </c>
+      <c r="F959" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G959" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H959" s="5">
+        <v>6</v>
+      </c>
+      <c r="I959" s="5">
+        <v>121</v>
+      </c>
+      <c r="J959" s="5">
+        <v>244</v>
+      </c>
+      <c r="K959" s="5">
+        <v>69</v>
+      </c>
+      <c r="L959" s="5">
+        <v>150</v>
+      </c>
+      <c r="M959" s="5">
+        <v>89</v>
+      </c>
+      <c r="N959" s="5">
+        <v>39</v>
+      </c>
+      <c r="O959" s="5">
+        <v>14</v>
+      </c>
+      <c r="P959" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q959" s="5">
+        <v>101</v>
+      </c>
+      <c r="R959" s="5">
+        <v>20</v>
+      </c>
+      <c r="S959" s="5">
+        <v>154</v>
+      </c>
+      <c r="T959" s="5">
+        <v>110</v>
+      </c>
+      <c r="U959" s="5">
+        <v>291</v>
+      </c>
+      <c r="V959" s="5">
+        <v>46</v>
+      </c>
+      <c r="W959" s="5">
+        <v>270</v>
+      </c>
+      <c r="X959" s="5">
+        <v>77</v>
+      </c>
+      <c r="Y959" s="5">
+        <v>44</v>
+      </c>
+      <c r="Z959" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="960" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A960" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B960" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C960" s="958">
+        <v>44009</v>
+      </c>
+      <c r="D960" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E960" s="5">
+        <v>135</v>
+      </c>
+      <c r="F960" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G960" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H960" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I960" s="5">
+        <v>19</v>
+      </c>
+      <c r="J960" s="5">
+        <v>19</v>
+      </c>
+      <c r="K960" s="5">
+        <v>3</v>
+      </c>
+      <c r="L960" s="5">
+        <v>11</v>
+      </c>
+      <c r="M960" s="5">
+        <v>7</v>
+      </c>
+      <c r="N960" s="5">
+        <v>3</v>
+      </c>
+      <c r="O960" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P960" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q960" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R960" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S960" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T960" s="5">
+        <v>8</v>
+      </c>
+      <c r="U960" s="5">
+        <v>25</v>
+      </c>
+      <c r="V960" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W960" s="5">
+        <v>15</v>
+      </c>
+      <c r="X960" s="5">
+        <v>11</v>
+      </c>
+      <c r="Y960" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z960" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="961" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A961" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B961" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C961" s="959">
+        <v>44009</v>
+      </c>
+      <c r="D961" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E961" s="5">
+        <v>4</v>
+      </c>
+      <c r="F961" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G961" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H961" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I961" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J961" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K961" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L961" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M961" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N961" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O961" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P961" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q961" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R961" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S961" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T961" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U961" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V961" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W961" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X961" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y961" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z961" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="962" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A962" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B962" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C962" s="960">
+        <v>44009</v>
+      </c>
+      <c r="D962" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E962" s="5">
+        <v>51</v>
+      </c>
+      <c r="F962" s="5">
+        <v>5</v>
+      </c>
+      <c r="G962" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H962" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I962" s="5">
+        <v>3</v>
+      </c>
+      <c r="J962" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K962" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L962" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M962" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N962" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O962" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P962" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q962" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R962" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S962" s="5">
+        <v>5</v>
+      </c>
+      <c r="T962" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U962" s="5">
+        <v>13</v>
+      </c>
+      <c r="V962" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W962" s="5">
+        <v>11</v>
+      </c>
+      <c r="X962" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y962" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z962" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="963" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A963" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B963" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C963" s="961">
+        <v>44009</v>
+      </c>
+      <c r="D963" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E963" s="5">
+        <v>145</v>
+      </c>
+      <c r="F963" s="5">
+        <v>4</v>
+      </c>
+      <c r="G963" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H963" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I963" s="5">
+        <v>4</v>
+      </c>
+      <c r="J963" s="5">
+        <v>50</v>
+      </c>
+      <c r="K963" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L963" s="5">
+        <v>14</v>
+      </c>
+      <c r="M963" s="5">
+        <v>6</v>
+      </c>
+      <c r="N963" s="5">
+        <v>3</v>
+      </c>
+      <c r="O963" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P963" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q963" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R963" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S963" s="5">
+        <v>5</v>
+      </c>
+      <c r="T963" s="5">
+        <v>7</v>
+      </c>
+      <c r="U963" s="5">
+        <v>18</v>
+      </c>
+      <c r="V963" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W963" s="5">
+        <v>22</v>
+      </c>
+      <c r="X963" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y963" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z963" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="964" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A964" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B964" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C964" s="962">
+        <v>44009</v>
+      </c>
+      <c r="D964" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E964" s="5">
+        <v>81</v>
+      </c>
+      <c r="F964" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G964" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H964" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I964" s="5">
+        <v>5</v>
+      </c>
+      <c r="J964" s="5">
+        <v>17</v>
+      </c>
+      <c r="K964" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L964" s="5">
+        <v>13</v>
+      </c>
+      <c r="M964" s="5">
+        <v>8</v>
+      </c>
+      <c r="N964" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O964" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P964" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q964" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R964" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S964" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T964" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U964" s="5">
+        <v>17</v>
+      </c>
+      <c r="V964" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W964" s="5">
+        <v>13</v>
+      </c>
+      <c r="X964" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y964" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z964" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="965" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A965" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B965" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C965" s="963">
+        <v>44009</v>
+      </c>
+      <c r="D965" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E965" s="5">
+        <v>17</v>
+      </c>
+      <c r="F965" s="5">
+        <v>3</v>
+      </c>
+      <c r="G965" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H965" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I965" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J965" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K965" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L965" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M965" s="5">
+        <v>3</v>
+      </c>
+      <c r="N965" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O965" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P965" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q965" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R965" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S965" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T965" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U965" s="5">
+        <v>4</v>
+      </c>
+      <c r="V965" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W965" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X965" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y965" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z965" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="966" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A966" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B966" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C966" s="964">
+        <v>44009</v>
+      </c>
+      <c r="D966" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E966" s="5">
+        <v>49</v>
+      </c>
+      <c r="F966" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G966" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H966" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I966" s="5">
+        <v>5</v>
+      </c>
+      <c r="J966" s="5">
+        <v>3</v>
+      </c>
+      <c r="K966" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L966" s="5">
+        <v>5</v>
+      </c>
+      <c r="M966" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N966" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O966" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P966" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q966" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R966" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S966" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T966" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U966" s="5">
+        <v>14</v>
+      </c>
+      <c r="V966" s="5">
+        <v>4</v>
+      </c>
+      <c r="W966" s="5">
+        <v>9</v>
+      </c>
+      <c r="X966" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y966" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z966" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="967" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A967" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B967" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C967" s="965">
+        <v>44009</v>
+      </c>
+      <c r="D967" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E967" s="5">
+        <v>1111</v>
+      </c>
+      <c r="F967" s="5">
+        <v>11</v>
+      </c>
+      <c r="G967" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H967" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I967" s="5">
+        <v>75</v>
+      </c>
+      <c r="J967" s="5">
+        <v>189</v>
+      </c>
+      <c r="K967" s="5">
+        <v>50</v>
+      </c>
+      <c r="L967" s="5">
+        <v>90</v>
+      </c>
+      <c r="M967" s="5">
+        <v>44</v>
+      </c>
+      <c r="N967" s="5">
+        <v>24</v>
+      </c>
+      <c r="O967" s="5">
+        <v>19</v>
+      </c>
+      <c r="P967" s="5">
+        <v>37</v>
+      </c>
+      <c r="Q967" s="5">
+        <v>46</v>
+      </c>
+      <c r="R967" s="5">
+        <v>5</v>
+      </c>
+      <c r="S967" s="5">
+        <v>100</v>
+      </c>
+      <c r="T967" s="5">
+        <v>55</v>
+      </c>
+      <c r="U967" s="5">
+        <v>139</v>
+      </c>
+      <c r="V967" s="5">
+        <v>17</v>
+      </c>
+      <c r="W967" s="5">
+        <v>126</v>
+      </c>
+      <c r="X967" s="5">
+        <v>42</v>
+      </c>
+      <c r="Y967" s="5">
+        <v>33</v>
+      </c>
+      <c r="Z967" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="968" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A968" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B968" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C968" s="966">
+        <v>44009</v>
+      </c>
+      <c r="D968" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y968" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z968" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="969" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A969" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B969" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C969" s="967">
+        <v>44009</v>
+      </c>
+      <c r="D969" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E969" s="5">
+        <v>192</v>
+      </c>
+      <c r="F969" s="5">
+        <v>4</v>
+      </c>
+      <c r="G969" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H969" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I969" s="5">
+        <v>22</v>
+      </c>
+      <c r="J969" s="5">
+        <v>48</v>
+      </c>
+      <c r="K969" s="5">
+        <v>3</v>
+      </c>
+      <c r="L969" s="5">
+        <v>15</v>
+      </c>
+      <c r="M969" s="5">
+        <v>18</v>
+      </c>
+      <c r="N969" s="5">
+        <v>3</v>
+      </c>
+      <c r="O969" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P969" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q969" s="5">
+        <v>5</v>
+      </c>
+      <c r="R969" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S969" s="5">
+        <v>12</v>
+      </c>
+      <c r="T969" s="5">
+        <v>9</v>
+      </c>
+      <c r="U969" s="5">
+        <v>25</v>
+      </c>
+      <c r="V969" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W969" s="5">
+        <v>19</v>
+      </c>
+      <c r="X969" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y969" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z969" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="970" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A970" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B970" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C970" s="968">
+        <v>44016</v>
+      </c>
+      <c r="D970" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E970" s="5">
+        <v>7679</v>
+      </c>
+      <c r="F970" s="5">
+        <v>145</v>
+      </c>
+      <c r="G970" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H970" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I970" s="5">
+        <v>559</v>
+      </c>
+      <c r="J970" s="5">
+        <v>1525</v>
+      </c>
+      <c r="K970" s="5">
+        <v>221</v>
+      </c>
+      <c r="L970" s="5">
+        <v>606</v>
+      </c>
+      <c r="M970" s="5">
+        <v>295</v>
+      </c>
+      <c r="N970" s="5">
+        <v>91</v>
+      </c>
+      <c r="O970" s="5">
+        <v>69</v>
+      </c>
+      <c r="P970" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q970" s="5">
+        <v>296</v>
+      </c>
+      <c r="R970" s="5">
+        <v>41</v>
+      </c>
+      <c r="S970" s="5">
+        <v>474</v>
+      </c>
+      <c r="T970" s="5">
+        <v>440</v>
+      </c>
+      <c r="U970" s="5">
+        <v>1181</v>
+      </c>
+      <c r="V970" s="5">
+        <v>206</v>
+      </c>
+      <c r="W970" s="5">
+        <v>936</v>
+      </c>
+      <c r="X970" s="5">
+        <v>308</v>
+      </c>
+      <c r="Y970" s="5">
+        <v>151</v>
+      </c>
+      <c r="Z970" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="971" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A971" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B971" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C971" s="969">
+        <v>44016</v>
+      </c>
+      <c r="D971" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E971" s="5">
+        <v>20</v>
+      </c>
+      <c r="F971" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G971" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H971" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I971" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J971" s="5">
+        <v>6</v>
+      </c>
+      <c r="K971" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L971" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M971" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N971" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O971" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P971" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q971" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R971" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S971" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T971" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U971" s="5">
+        <v>4</v>
+      </c>
+      <c r="V971" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W971" s="5">
+        <v>4</v>
+      </c>
+      <c r="X971" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y971" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z971" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="972" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A972" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B972" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C972" s="970">
+        <v>44016</v>
+      </c>
+      <c r="D972" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E972" s="5">
+        <v>117</v>
+      </c>
+      <c r="F972" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G972" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H972" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I972" s="5">
+        <v>5</v>
+      </c>
+      <c r="J972" s="5">
+        <v>14</v>
+      </c>
+      <c r="K972" s="5">
+        <v>3</v>
+      </c>
+      <c r="L972" s="5">
+        <v>8</v>
+      </c>
+      <c r="M972" s="5">
+        <v>5</v>
+      </c>
+      <c r="N972" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O972" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P972" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q972" s="5">
+        <v>11</v>
+      </c>
+      <c r="R972" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S972" s="5">
+        <v>9</v>
+      </c>
+      <c r="T972" s="5">
+        <v>13</v>
+      </c>
+      <c r="U972" s="5">
+        <v>20</v>
+      </c>
+      <c r="V972" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W972" s="5">
+        <v>16</v>
+      </c>
+      <c r="X972" s="5">
+        <v>6</v>
+      </c>
+      <c r="Y972" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z972" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="973" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A973" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B973" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C973" s="971">
+        <v>44016</v>
+      </c>
+      <c r="D973" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E973" s="5">
+        <v>790</v>
+      </c>
+      <c r="F973" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G973" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H973" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I973" s="5">
+        <v>72</v>
+      </c>
+      <c r="J973" s="5">
+        <v>230</v>
+      </c>
+      <c r="K973" s="5">
+        <v>35</v>
+      </c>
+      <c r="L973" s="5">
+        <v>41</v>
+      </c>
+      <c r="M973" s="5">
+        <v>40</v>
+      </c>
+      <c r="N973" s="5">
+        <v>8</v>
+      </c>
+      <c r="O973" s="5">
+        <v>5</v>
+      </c>
+      <c r="P973" s="5">
+        <v>13</v>
+      </c>
+      <c r="Q973" s="5">
+        <v>26</v>
+      </c>
+      <c r="R973" s="5">
+        <v>3</v>
+      </c>
+      <c r="S973" s="5">
+        <v>35</v>
+      </c>
+      <c r="T973" s="5">
+        <v>43</v>
+      </c>
+      <c r="U973" s="5">
+        <v>103</v>
+      </c>
+      <c r="V973" s="5">
+        <v>16</v>
+      </c>
+      <c r="W973" s="5">
+        <v>64</v>
+      </c>
+      <c r="X973" s="5">
+        <v>44</v>
+      </c>
+      <c r="Y973" s="5">
+        <v>6</v>
+      </c>
+      <c r="Z973" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="974" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A974" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B974" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C974" s="972">
+        <v>44016</v>
+      </c>
+      <c r="D974" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E974" s="5">
+        <v>70</v>
+      </c>
+      <c r="F974" s="5">
+        <v>5</v>
+      </c>
+      <c r="G974" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H974" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I974" s="5">
+        <v>3</v>
+      </c>
+      <c r="J974" s="5">
+        <v>5</v>
+      </c>
+      <c r="K974" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L974" s="5">
+        <v>3</v>
+      </c>
+      <c r="M974" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N974" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O974" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P974" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q974" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R974" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S974" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T974" s="5">
+        <v>8</v>
+      </c>
+      <c r="U974" s="5">
+        <v>11</v>
+      </c>
+      <c r="V974" s="5">
+        <v>3</v>
+      </c>
+      <c r="W974" s="5">
+        <v>23</v>
+      </c>
+      <c r="X974" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y974" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z974" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="975" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A975" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B975" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C975" s="973">
+        <v>44016</v>
+      </c>
+      <c r="D975" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E975" s="5">
+        <v>80</v>
+      </c>
+      <c r="F975" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G975" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H975" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I975" s="5">
+        <v>13</v>
+      </c>
+      <c r="J975" s="5">
+        <v>13</v>
+      </c>
+      <c r="K975" s="5">
+        <v>3</v>
+      </c>
+      <c r="L975" s="5">
+        <v>5</v>
+      </c>
+      <c r="M975" s="5">
+        <v>4</v>
+      </c>
+      <c r="N975" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O975" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P975" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q975" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R975" s="5">
+        <v>3</v>
+      </c>
+      <c r="S975" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T975" s="5">
+        <v>4</v>
+      </c>
+      <c r="U975" s="5">
+        <v>13</v>
+      </c>
+      <c r="V975" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W975" s="5">
+        <v>12</v>
+      </c>
+      <c r="X975" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y975" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z975" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="976" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A976" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B976" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C976" s="974">
+        <v>44016</v>
+      </c>
+      <c r="D976" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E976" s="5">
+        <v>95</v>
+      </c>
+      <c r="F976" s="5">
+        <v>4</v>
+      </c>
+      <c r="G976" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H976" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I976" s="5">
+        <v>8</v>
+      </c>
+      <c r="J976" s="5">
+        <v>11</v>
+      </c>
+      <c r="K976" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L976" s="5">
+        <v>5</v>
+      </c>
+      <c r="M976" s="5">
+        <v>4</v>
+      </c>
+      <c r="N976" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O976" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P976" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q976" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R976" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S976" s="5">
+        <v>7</v>
+      </c>
+      <c r="T976" s="5">
+        <v>10</v>
+      </c>
+      <c r="U976" s="5">
+        <v>24</v>
+      </c>
+      <c r="V976" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W976" s="5">
+        <v>13</v>
+      </c>
+      <c r="X976" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y976" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z976" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="977" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A977" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B977" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C977" s="975">
+        <v>44016</v>
+      </c>
+      <c r="D977" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E977" s="5">
+        <v>28</v>
+      </c>
+      <c r="F977" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G977" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H977" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I977" s="5">
+        <v>4</v>
+      </c>
+      <c r="J977" s="5">
+        <v>5</v>
+      </c>
+      <c r="K977" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L977" s="5">
+        <v>3</v>
+      </c>
+      <c r="M977" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N977" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O977" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P977" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q977" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R977" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S977" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T977" s="5">
+        <v>3</v>
+      </c>
+      <c r="U977" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V977" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W977" s="5">
+        <v>3</v>
+      </c>
+      <c r="X977" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y977" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z977" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="978" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A978" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B978" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C978" s="976">
+        <v>44016</v>
+      </c>
+      <c r="D978" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E978" s="5">
+        <v>32</v>
+      </c>
+      <c r="F978" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G978" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H978" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I978" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J978" s="5">
+        <v>4</v>
+      </c>
+      <c r="K978" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L978" s="5">
+        <v>5</v>
+      </c>
+      <c r="M978" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N978" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O978" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P978" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q978" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R978" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S978" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T978" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U978" s="5">
+        <v>16</v>
+      </c>
+      <c r="V978" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W978" s="5">
+        <v>3</v>
+      </c>
+      <c r="X978" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y978" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z978" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="979" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A979" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B979" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C979" s="977">
+        <v>44016</v>
+      </c>
+      <c r="D979" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E979" s="5">
+        <v>300</v>
+      </c>
+      <c r="F979" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G979" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H979" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I979" s="5">
+        <v>21</v>
+      </c>
+      <c r="J979" s="5">
+        <v>58</v>
+      </c>
+      <c r="K979" s="5">
+        <v>9</v>
+      </c>
+      <c r="L979" s="5">
+        <v>36</v>
+      </c>
+      <c r="M979" s="5">
+        <v>7</v>
+      </c>
+      <c r="N979" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O979" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P979" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q979" s="5">
+        <v>10</v>
+      </c>
+      <c r="R979" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S979" s="5">
+        <v>22</v>
+      </c>
+      <c r="T979" s="5">
+        <v>16</v>
+      </c>
+      <c r="U979" s="5">
+        <v>37</v>
+      </c>
+      <c r="V979" s="5">
+        <v>13</v>
+      </c>
+      <c r="W979" s="5">
+        <v>44</v>
+      </c>
+      <c r="X979" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y979" s="5">
+        <v>6</v>
+      </c>
+      <c r="Z979" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="980" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A980" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B980" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C980" s="978">
+        <v>44016</v>
+      </c>
+      <c r="D980" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E980" s="5">
+        <v>139</v>
+      </c>
+      <c r="F980" s="5">
+        <v>4</v>
+      </c>
+      <c r="G980" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H980" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I980" s="5">
+        <v>3</v>
+      </c>
+      <c r="J980" s="5">
+        <v>14</v>
+      </c>
+      <c r="K980" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L980" s="5">
+        <v>9</v>
+      </c>
+      <c r="M980" s="5">
+        <v>11</v>
+      </c>
+      <c r="N980" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O980" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P980" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q980" s="5">
+        <v>3</v>
+      </c>
+      <c r="R980" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S980" s="5">
+        <v>9</v>
+      </c>
+      <c r="T980" s="5">
+        <v>11</v>
+      </c>
+      <c r="U980" s="5">
+        <v>29</v>
+      </c>
+      <c r="V980" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W980" s="5">
+        <v>23</v>
+      </c>
+      <c r="X980" s="5">
+        <v>8</v>
+      </c>
+      <c r="Y980" s="5">
+        <v>13</v>
+      </c>
+      <c r="Z980" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="981" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A981" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B981" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C981" s="979">
+        <v>44016</v>
+      </c>
+      <c r="D981" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y981" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z981" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="982" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A982" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B982" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C982" s="980">
+        <v>44016</v>
+      </c>
+      <c r="D982" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y982" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z982" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="983" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A983" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B983" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C983" s="981">
+        <v>44016</v>
+      </c>
+      <c r="D983" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E983" s="5">
+        <v>5</v>
+      </c>
+      <c r="F983" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G983" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H983" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I983" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J983" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K983" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L983" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M983" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N983" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O983" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P983" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q983" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R983" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S983" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T983" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U983" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V983" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W983" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X983" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y983" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z983" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="984" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A984" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B984" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C984" s="982">
+        <v>44016</v>
+      </c>
+      <c r="D984" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E984" s="5">
+        <v>42</v>
+      </c>
+      <c r="F984" s="5">
+        <v>5</v>
+      </c>
+      <c r="G984" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H984" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I984" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J984" s="5">
+        <v>3</v>
+      </c>
+      <c r="K984" s="5">
+        <v>8</v>
+      </c>
+      <c r="L984" s="5">
+        <v>4</v>
+      </c>
+      <c r="M984" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N984" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O984" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P984" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q984" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R984" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S984" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T984" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U984" s="5">
+        <v>9</v>
+      </c>
+      <c r="V984" s="5">
+        <v>3</v>
+      </c>
+      <c r="W984" s="5">
+        <v>5</v>
+      </c>
+      <c r="X984" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y984" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z984" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="985" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A985" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B985" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C985" s="983">
+        <v>44016</v>
+      </c>
+      <c r="D985" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E985" s="5">
+        <v>468</v>
+      </c>
+      <c r="F985" s="5">
+        <v>19</v>
+      </c>
+      <c r="G985" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H985" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I985" s="5">
+        <v>17</v>
+      </c>
+      <c r="J985" s="5">
+        <v>158</v>
+      </c>
+      <c r="K985" s="5">
+        <v>5</v>
+      </c>
+      <c r="L985" s="5">
+        <v>61</v>
+      </c>
+      <c r="M985" s="5">
+        <v>10</v>
+      </c>
+      <c r="N985" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O985" s="5">
+        <v>4</v>
+      </c>
+      <c r="P985" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q985" s="5">
+        <v>11</v>
+      </c>
+      <c r="R985" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S985" s="5">
+        <v>20</v>
+      </c>
+      <c r="T985" s="5">
+        <v>14</v>
+      </c>
+      <c r="U985" s="5">
+        <v>64</v>
+      </c>
+      <c r="V985" s="5">
+        <v>17</v>
+      </c>
+      <c r="W985" s="5">
+        <v>46</v>
+      </c>
+      <c r="X985" s="5">
+        <v>11</v>
+      </c>
+      <c r="Y985" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z985" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="986" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A986" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B986" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C986" s="984">
+        <v>44016</v>
+      </c>
+      <c r="D986" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E986" s="5">
+        <v>48</v>
+      </c>
+      <c r="F986" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G986" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H986" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I986" s="5">
+        <v>3</v>
+      </c>
+      <c r="J986" s="5">
+        <v>17</v>
+      </c>
+      <c r="K986" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L986" s="5">
+        <v>3</v>
+      </c>
+      <c r="M986" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N986" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O986" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P986" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q986" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R986" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S986" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T986" s="5">
+        <v>7</v>
+      </c>
+      <c r="U986" s="5">
+        <v>8</v>
+      </c>
+      <c r="V986" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W986" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X986" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y986" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z986" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="987" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A987" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B987" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C987" s="985">
+        <v>44016</v>
+      </c>
+      <c r="D987" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E987" s="5">
+        <v>115</v>
+      </c>
+      <c r="F987" s="5">
+        <v>20</v>
+      </c>
+      <c r="G987" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H987" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I987" s="5">
+        <v>10</v>
+      </c>
+      <c r="J987" s="5">
+        <v>6</v>
+      </c>
+      <c r="K987" s="5">
+        <v>3</v>
+      </c>
+      <c r="L987" s="5">
+        <v>11</v>
+      </c>
+      <c r="M987" s="5">
+        <v>6</v>
+      </c>
+      <c r="N987" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O987" s="5">
+        <v>3</v>
+      </c>
+      <c r="P987" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q987" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R987" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S987" s="5">
+        <v>7</v>
+      </c>
+      <c r="T987" s="5">
+        <v>4</v>
+      </c>
+      <c r="U987" s="5">
+        <v>21</v>
+      </c>
+      <c r="V987" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W987" s="5">
+        <v>10</v>
+      </c>
+      <c r="X987" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y987" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z987" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="988" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A988" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B988" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C988" s="986">
+        <v>44016</v>
+      </c>
+      <c r="D988" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E988" s="5">
+        <v>145</v>
+      </c>
+      <c r="F988" s="5">
+        <v>3</v>
+      </c>
+      <c r="G988" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H988" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I988" s="5">
+        <v>6</v>
+      </c>
+      <c r="J988" s="5">
+        <v>50</v>
+      </c>
+      <c r="K988" s="5">
+        <v>4</v>
+      </c>
+      <c r="L988" s="5">
+        <v>9</v>
+      </c>
+      <c r="M988" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N988" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O988" s="5">
+        <v>3</v>
+      </c>
+      <c r="P988" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q988" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R988" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S988" s="5">
+        <v>5</v>
+      </c>
+      <c r="T988" s="5">
+        <v>11</v>
+      </c>
+      <c r="U988" s="5">
+        <v>31</v>
+      </c>
+      <c r="V988" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W988" s="5">
+        <v>9</v>
+      </c>
+      <c r="X988" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y988" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z988" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="989" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A989" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B989" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C989" s="987">
+        <v>44016</v>
+      </c>
+      <c r="D989" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y989" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z989" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="990" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A990" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B990" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C990" s="988">
+        <v>44016</v>
+      </c>
+      <c r="D990" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E990" s="5">
+        <v>537</v>
+      </c>
+      <c r="F990" s="5">
+        <v>10</v>
+      </c>
+      <c r="G990" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H990" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I990" s="5">
+        <v>57</v>
+      </c>
+      <c r="J990" s="5">
+        <v>51</v>
+      </c>
+      <c r="K990" s="5">
+        <v>18</v>
+      </c>
+      <c r="L990" s="5">
+        <v>42</v>
+      </c>
+      <c r="M990" s="5">
+        <v>14</v>
+      </c>
+      <c r="N990" s="5">
+        <v>11</v>
+      </c>
+      <c r="O990" s="5">
+        <v>3</v>
+      </c>
+      <c r="P990" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q990" s="5">
+        <v>16</v>
+      </c>
+      <c r="R990" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S990" s="5">
+        <v>52</v>
+      </c>
+      <c r="T990" s="5">
+        <v>46</v>
+      </c>
+      <c r="U990" s="5">
+        <v>91</v>
+      </c>
+      <c r="V990" s="5">
+        <v>9</v>
+      </c>
+      <c r="W990" s="5">
+        <v>77</v>
+      </c>
+      <c r="X990" s="5">
+        <v>25</v>
+      </c>
+      <c r="Y990" s="5">
+        <v>7</v>
+      </c>
+      <c r="Z990" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="991" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A991" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B991" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C991" s="989">
+        <v>44016</v>
+      </c>
+      <c r="D991" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E991" s="5">
+        <v>74</v>
+      </c>
+      <c r="F991" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G991" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H991" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I991" s="5">
+        <v>6</v>
+      </c>
+      <c r="J991" s="5">
+        <v>11</v>
+      </c>
+      <c r="K991" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L991" s="5">
+        <v>4</v>
+      </c>
+      <c r="M991" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N991" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O991" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P991" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q991" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R991" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S991" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T991" s="5">
+        <v>4</v>
+      </c>
+      <c r="U991" s="5">
+        <v>19</v>
+      </c>
+      <c r="V991" s="5">
+        <v>4</v>
+      </c>
+      <c r="W991" s="5">
+        <v>12</v>
+      </c>
+      <c r="X991" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y991" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z991" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="992" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A992" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B992" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C992" s="990">
+        <v>44016</v>
+      </c>
+      <c r="D992" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E992" s="5">
+        <v>200</v>
+      </c>
+      <c r="F992" s="5">
+        <v>5</v>
+      </c>
+      <c r="G992" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H992" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I992" s="5">
+        <v>25</v>
+      </c>
+      <c r="J992" s="5">
+        <v>44</v>
+      </c>
+      <c r="K992" s="5">
+        <v>3</v>
+      </c>
+      <c r="L992" s="5">
+        <v>17</v>
+      </c>
+      <c r="M992" s="5">
+        <v>5</v>
+      </c>
+      <c r="N992" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O992" s="5">
+        <v>3</v>
+      </c>
+      <c r="P992" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q992" s="5">
+        <v>6</v>
+      </c>
+      <c r="R992" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S992" s="5">
+        <v>11</v>
+      </c>
+      <c r="T992" s="5">
+        <v>8</v>
+      </c>
+      <c r="U992" s="5">
+        <v>44</v>
+      </c>
+      <c r="V992" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W992" s="5">
+        <v>12</v>
+      </c>
+      <c r="X992" s="5">
+        <v>6</v>
+      </c>
+      <c r="Y992" s="5">
+        <v>6</v>
+      </c>
+      <c r="Z992" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="993" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A993" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B993" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C993" s="991">
+        <v>44016</v>
+      </c>
+      <c r="D993" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E993" s="5">
+        <v>79</v>
+      </c>
+      <c r="F993" s="5">
+        <v>5</v>
+      </c>
+      <c r="G993" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H993" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I993" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J993" s="5">
+        <v>42</v>
+      </c>
+      <c r="K993" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L993" s="5">
+        <v>3</v>
+      </c>
+      <c r="M993" s="5">
+        <v>4</v>
+      </c>
+      <c r="N993" s="5">
+        <v>3</v>
+      </c>
+      <c r="O993" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P993" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q993" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R993" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S993" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T993" s="5">
+        <v>6</v>
+      </c>
+      <c r="U993" s="5">
+        <v>9</v>
+      </c>
+      <c r="V993" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W993" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X993" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y993" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z993" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="994" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A994" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B994" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C994" s="992">
+        <v>44016</v>
+      </c>
+      <c r="D994" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E994" s="5">
+        <v>511</v>
+      </c>
+      <c r="F994" s="5">
+        <v>18</v>
+      </c>
+      <c r="G994" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H994" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I994" s="5">
+        <v>57</v>
+      </c>
+      <c r="J994" s="5">
+        <v>74</v>
+      </c>
+      <c r="K994" s="5">
+        <v>17</v>
+      </c>
+      <c r="L994" s="5">
+        <v>42</v>
+      </c>
+      <c r="M994" s="5">
+        <v>19</v>
+      </c>
+      <c r="N994" s="5">
+        <v>6</v>
+      </c>
+      <c r="O994" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P994" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q994" s="5">
+        <v>12</v>
+      </c>
+      <c r="R994" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S994" s="5">
+        <v>28</v>
+      </c>
+      <c r="T994" s="5">
+        <v>24</v>
+      </c>
+      <c r="U994" s="5">
+        <v>76</v>
+      </c>
+      <c r="V994" s="5">
+        <v>10</v>
+      </c>
+      <c r="W994" s="5">
+        <v>74</v>
+      </c>
+      <c r="X994" s="5">
+        <v>16</v>
+      </c>
+      <c r="Y994" s="5">
+        <v>27</v>
+      </c>
+      <c r="Z994" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="995" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A995" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B995" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C995" s="993">
+        <v>44016</v>
+      </c>
+      <c r="D995" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E995" s="5">
+        <v>24</v>
+      </c>
+      <c r="F995" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G995" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H995" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I995" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J995" s="5">
+        <v>11</v>
+      </c>
+      <c r="K995" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L995" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M995" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N995" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O995" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P995" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q995" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R995" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S995" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T995" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U995" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V995" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W995" s="5">
+        <v>3</v>
+      </c>
+      <c r="X995" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y995" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z995" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="996" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A996" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B996" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C996" s="994">
+        <v>44016</v>
+      </c>
+      <c r="D996" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E996" s="5">
+        <v>1684</v>
+      </c>
+      <c r="F996" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G996" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H996" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I996" s="5">
+        <v>80</v>
+      </c>
+      <c r="J996" s="5">
+        <v>252</v>
+      </c>
+      <c r="K996" s="5">
+        <v>54</v>
+      </c>
+      <c r="L996" s="5">
+        <v>157</v>
+      </c>
+      <c r="M996" s="5">
+        <v>59</v>
+      </c>
+      <c r="N996" s="5">
+        <v>21</v>
+      </c>
+      <c r="O996" s="5">
+        <v>17</v>
+      </c>
+      <c r="P996" s="5">
+        <v>27</v>
+      </c>
+      <c r="Q996" s="5">
+        <v>117</v>
+      </c>
+      <c r="R996" s="5">
+        <v>12</v>
+      </c>
+      <c r="S996" s="5">
+        <v>132</v>
+      </c>
+      <c r="T996" s="5">
+        <v>110</v>
+      </c>
+      <c r="U996" s="5">
+        <v>255</v>
+      </c>
+      <c r="V996" s="5">
+        <v>74</v>
+      </c>
+      <c r="W996" s="5">
+        <v>209</v>
+      </c>
+      <c r="X996" s="5">
+        <v>80</v>
+      </c>
+      <c r="Y996" s="5">
+        <v>23</v>
+      </c>
+      <c r="Z996" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="997" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A997" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B997" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C997" s="995">
+        <v>44016</v>
+      </c>
+      <c r="D997" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E997" s="5">
+        <v>101</v>
+      </c>
+      <c r="F997" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G997" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H997" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I997" s="5">
+        <v>10</v>
+      </c>
+      <c r="J997" s="5">
+        <v>17</v>
+      </c>
+      <c r="K997" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L997" s="5">
+        <v>4</v>
+      </c>
+      <c r="M997" s="5">
+        <v>4</v>
+      </c>
+      <c r="N997" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O997" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P997" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q997" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R997" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S997" s="5">
+        <v>3</v>
+      </c>
+      <c r="T997" s="5">
+        <v>14</v>
+      </c>
+      <c r="U997" s="5">
+        <v>12</v>
+      </c>
+      <c r="V997" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W997" s="5">
+        <v>15</v>
+      </c>
+      <c r="X997" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y997" s="5">
+        <v>7</v>
+      </c>
+      <c r="Z997" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="998" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A998" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B998" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C998" s="996">
+        <v>44016</v>
+      </c>
+      <c r="D998" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y998" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z998" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="999" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A999" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B999" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C999" s="997">
+        <v>44016</v>
+      </c>
+      <c r="D999" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E999" s="5">
+        <v>29</v>
+      </c>
+      <c r="F999" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G999" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H999" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I999" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J999" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K999" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L999" s="5">
+        <v>4</v>
+      </c>
+      <c r="M999" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N999" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O999" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P999" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q999" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R999" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S999" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T999" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U999" s="5">
+        <v>10</v>
+      </c>
+      <c r="V999" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W999" s="5">
+        <v>4</v>
+      </c>
+      <c r="X999" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y999" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z999" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1000" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1000" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1000" s="998">
+        <v>44016</v>
+      </c>
+      <c r="D1000" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1000" s="5">
+        <v>148</v>
+      </c>
+      <c r="F1000" s="5">
+        <v>6</v>
+      </c>
+      <c r="G1000" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1000" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1000" s="5">
+        <v>6</v>
+      </c>
+      <c r="J1000" s="5">
+        <v>71</v>
+      </c>
+      <c r="K1000" s="5">
+        <v>3</v>
+      </c>
+      <c r="L1000" s="5">
+        <v>11</v>
+      </c>
+      <c r="M1000" s="5">
+        <v>7</v>
+      </c>
+      <c r="N1000" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1000" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1000" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1000" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1000" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1000" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1000" s="5">
+        <v>6</v>
+      </c>
+      <c r="U1000" s="5">
+        <v>11</v>
+      </c>
+      <c r="V1000" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1000" s="5">
+        <v>20</v>
+      </c>
+      <c r="X1000" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1000" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1000" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1001" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1001" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1001" s="999">
+        <v>44016</v>
+      </c>
+      <c r="D1001" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1001" s="5">
+        <v>57</v>
+      </c>
+      <c r="F1001" s="5">
+        <v>5</v>
+      </c>
+      <c r="G1001" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1001" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1001" s="5">
+        <v>4</v>
+      </c>
+      <c r="J1001" s="5">
+        <v>9</v>
+      </c>
+      <c r="K1001" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1001" s="5">
+        <v>3</v>
+      </c>
+      <c r="M1001" s="5">
+        <v>5</v>
+      </c>
+      <c r="N1001" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1001" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1001" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1001" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1001" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1001" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1001" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1001" s="5">
+        <v>9</v>
+      </c>
+      <c r="V1001" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1001" s="5">
+        <v>15</v>
+      </c>
+      <c r="X1001" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y1001" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1001" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1002" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1002" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1002" s="1000">
+        <v>44016</v>
+      </c>
+      <c r="D1002" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1002" s="5">
+        <v>12</v>
+      </c>
+      <c r="F1002" s="5">
+        <v>3</v>
+      </c>
+      <c r="G1002" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1002" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1002" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1002" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1002" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1002" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1002" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1002" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1002" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1002" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1002" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1002" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1002" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1002" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1002" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1002" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1002" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1002" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1002" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1002" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1003" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1003" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1003" s="1001">
+        <v>44016</v>
+      </c>
+      <c r="D1003" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1003" s="5">
+        <v>37</v>
+      </c>
+      <c r="F1003" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1003" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1003" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1003" s="5">
+        <v>5</v>
+      </c>
+      <c r="J1003" s="5">
+        <v>3</v>
+      </c>
+      <c r="K1003" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1003" s="5">
+        <v>3</v>
+      </c>
+      <c r="M1003" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1003" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1003" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1003" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1003" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1003" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1003" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1003" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1003" s="5">
+        <v>17</v>
+      </c>
+      <c r="V1003" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1003" s="5">
+        <v>5</v>
+      </c>
+      <c r="X1003" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1003" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1003" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1004" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1004" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1004" s="1002">
+        <v>44016</v>
+      </c>
+      <c r="D1004" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1004" s="5">
+        <v>976</v>
+      </c>
+      <c r="F1004" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1004" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1004" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1004" s="5">
+        <v>50</v>
+      </c>
+      <c r="J1004" s="5">
+        <v>172</v>
+      </c>
+      <c r="K1004" s="5">
+        <v>30</v>
+      </c>
+      <c r="L1004" s="5">
+        <v>66</v>
+      </c>
+      <c r="M1004" s="5">
+        <v>24</v>
+      </c>
+      <c r="N1004" s="5">
+        <v>16</v>
+      </c>
+      <c r="O1004" s="5">
+        <v>16</v>
+      </c>
+      <c r="P1004" s="5">
+        <v>26</v>
+      </c>
+      <c r="Q1004" s="5">
+        <v>49</v>
+      </c>
+      <c r="R1004" s="5">
+        <v>12</v>
+      </c>
+      <c r="S1004" s="5">
+        <v>77</v>
+      </c>
+      <c r="T1004" s="5">
+        <v>39</v>
+      </c>
+      <c r="U1004" s="5">
+        <v>139</v>
+      </c>
+      <c r="V1004" s="5">
+        <v>29</v>
+      </c>
+      <c r="W1004" s="5">
+        <v>157</v>
+      </c>
+      <c r="X1004" s="5">
+        <v>51</v>
+      </c>
+      <c r="Y1004" s="5">
+        <v>13</v>
+      </c>
+      <c r="Z1004" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1005" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1005" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1005" s="1003">
+        <v>44016</v>
+      </c>
+      <c r="D1005" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1005" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1005" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1006" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1006" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1006" s="1004">
+        <v>44016</v>
+      </c>
+      <c r="D1006" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1006" s="5">
+        <v>185</v>
+      </c>
+      <c r="F1006" s="5">
+        <v>5</v>
+      </c>
+      <c r="G1006" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1006" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1006" s="5">
+        <v>18</v>
+      </c>
+      <c r="J1006" s="5">
+        <v>42</v>
+      </c>
+      <c r="K1006" s="5">
+        <v>7</v>
+      </c>
+      <c r="L1006" s="5">
+        <v>13</v>
+      </c>
+      <c r="M1006" s="5">
+        <v>17</v>
+      </c>
+      <c r="N1006" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1006" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1006" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q1006" s="5">
+        <v>4</v>
+      </c>
+      <c r="R1006" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1006" s="5">
+        <v>10</v>
+      </c>
+      <c r="T1006" s="5">
+        <v>9</v>
+      </c>
+      <c r="U1006" s="5">
+        <v>32</v>
+      </c>
+      <c r="V1006" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1006" s="5">
+        <v>12</v>
+      </c>
+      <c r="X1006" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y1006" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z1006" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1007" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1007" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1007" s="1005">
+        <v>44023</v>
+      </c>
+      <c r="D1007" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1007" s="5">
+        <v>8994</v>
+      </c>
+      <c r="F1007" s="5">
+        <v>142</v>
+      </c>
+      <c r="G1007" s="5">
+        <v>10</v>
+      </c>
+      <c r="H1007" s="5">
+        <v>6</v>
+      </c>
+      <c r="I1007" s="5">
+        <v>730</v>
+      </c>
+      <c r="J1007" s="5">
+        <v>1588</v>
+      </c>
+      <c r="K1007" s="5">
+        <v>246</v>
+      </c>
+      <c r="L1007" s="5">
+        <v>804</v>
+      </c>
+      <c r="M1007" s="5">
+        <v>326</v>
+      </c>
+      <c r="N1007" s="5">
+        <v>117</v>
+      </c>
+      <c r="O1007" s="5">
+        <v>118</v>
+      </c>
+      <c r="P1007" s="5">
+        <v>110</v>
+      </c>
+      <c r="Q1007" s="5">
+        <v>299</v>
+      </c>
+      <c r="R1007" s="5">
+        <v>205</v>
+      </c>
+      <c r="S1007" s="5">
+        <v>618</v>
+      </c>
+      <c r="T1007" s="5">
+        <v>466</v>
+      </c>
+      <c r="U1007" s="5">
+        <v>1269</v>
+      </c>
+      <c r="V1007" s="5">
+        <v>234</v>
+      </c>
+      <c r="W1007" s="5">
+        <v>1214</v>
+      </c>
+      <c r="X1007" s="5">
+        <v>314</v>
+      </c>
+      <c r="Y1007" s="5">
+        <v>140</v>
+      </c>
+      <c r="Z1007" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1008" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1008" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1008" s="1006">
+        <v>44023</v>
+      </c>
+      <c r="D1008" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1008" s="5">
+        <v>67</v>
+      </c>
+      <c r="F1008" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1008" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1008" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1008" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1008" s="5">
+        <v>45</v>
+      </c>
+      <c r="K1008" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1008" s="5">
+        <v>5</v>
+      </c>
+      <c r="M1008" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1008" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1008" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1008" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1008" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1008" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1008" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1008" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1008" s="5">
+        <v>5</v>
+      </c>
+      <c r="V1008" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1008" s="5">
+        <v>7</v>
+      </c>
+      <c r="X1008" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1008" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1008" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1009" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1009" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1009" s="1007">
+        <v>44023</v>
+      </c>
+      <c r="D1009" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1009" s="5">
+        <v>130</v>
+      </c>
+      <c r="F1009" s="5">
+        <v>4</v>
+      </c>
+      <c r="G1009" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1009" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1009" s="5">
+        <v>8</v>
+      </c>
+      <c r="J1009" s="5">
+        <v>11</v>
+      </c>
+      <c r="K1009" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1009" s="5">
+        <v>12</v>
+      </c>
+      <c r="M1009" s="5">
+        <v>4</v>
+      </c>
+      <c r="N1009" s="5">
+        <v>3</v>
+      </c>
+      <c r="O1009" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1009" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q1009" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1009" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1009" s="5">
+        <v>6</v>
+      </c>
+      <c r="T1009" s="5">
+        <v>20</v>
+      </c>
+      <c r="U1009" s="5">
+        <v>23</v>
+      </c>
+      <c r="V1009" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1009" s="5">
+        <v>16</v>
+      </c>
+      <c r="X1009" s="5">
+        <v>8</v>
+      </c>
+      <c r="Y1009" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z1009" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1010" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1010" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1010" s="1008">
+        <v>44023</v>
+      </c>
+      <c r="D1010" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1010" s="5">
+        <v>874</v>
+      </c>
+      <c r="F1010" s="5">
+        <v>4</v>
+      </c>
+      <c r="G1010" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1010" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1010" s="5">
+        <v>84</v>
+      </c>
+      <c r="J1010" s="5">
+        <v>201</v>
+      </c>
+      <c r="K1010" s="5">
+        <v>24</v>
+      </c>
+      <c r="L1010" s="5">
+        <v>69</v>
+      </c>
+      <c r="M1010" s="5">
+        <v>37</v>
+      </c>
+      <c r="N1010" s="5">
+        <v>7</v>
+      </c>
+      <c r="O1010" s="5">
+        <v>13</v>
+      </c>
+      <c r="P1010" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q1010" s="5">
+        <v>39</v>
+      </c>
+      <c r="R1010" s="5">
+        <v>16</v>
+      </c>
+      <c r="S1010" s="5">
+        <v>50</v>
+      </c>
+      <c r="T1010" s="5">
+        <v>51</v>
+      </c>
+      <c r="U1010" s="5">
+        <v>111</v>
+      </c>
+      <c r="V1010" s="5">
+        <v>32</v>
+      </c>
+      <c r="W1010" s="5">
+        <v>88</v>
+      </c>
+      <c r="X1010" s="5">
+        <v>27</v>
+      </c>
+      <c r="Y1010" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z1010" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1011" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1011" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1011" s="1009">
+        <v>44023</v>
+      </c>
+      <c r="D1011" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1011" s="5">
+        <v>81</v>
+      </c>
+      <c r="F1011" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1011" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1011" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1011" s="5">
+        <v>11</v>
+      </c>
+      <c r="J1011" s="5">
+        <v>8</v>
+      </c>
+      <c r="K1011" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1011" s="5">
+        <v>8</v>
+      </c>
+      <c r="M1011" s="5">
+        <v>3</v>
+      </c>
+      <c r="N1011" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1011" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1011" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1011" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1011" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1011" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1011" s="5">
+        <v>6</v>
+      </c>
+      <c r="U1011" s="5">
+        <v>19</v>
+      </c>
+      <c r="V1011" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1011" s="5">
+        <v>16</v>
+      </c>
+      <c r="X1011" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1011" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1011" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1012" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1012" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1012" s="1010">
+        <v>44023</v>
+      </c>
+      <c r="D1012" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1012" s="5">
+        <v>88</v>
+      </c>
+      <c r="F1012" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1012" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1012" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1012" s="5">
+        <v>19</v>
+      </c>
+      <c r="J1012" s="5">
+        <v>9</v>
+      </c>
+      <c r="K1012" s="5">
+        <v>4</v>
+      </c>
+      <c r="L1012" s="5">
+        <v>6</v>
+      </c>
+      <c r="M1012" s="5">
+        <v>6</v>
+      </c>
+      <c r="N1012" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1012" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1012" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q1012" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1012" s="5">
+        <v>7</v>
+      </c>
+      <c r="S1012" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1012" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1012" s="5">
+        <v>12</v>
+      </c>
+      <c r="V1012" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1012" s="5">
+        <v>13</v>
+      </c>
+      <c r="X1012" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1012" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1012" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1013" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1013" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1013" s="1011">
+        <v>44023</v>
+      </c>
+      <c r="D1013" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1013" s="5">
+        <v>125</v>
+      </c>
+      <c r="F1013" s="5">
+        <v>3</v>
+      </c>
+      <c r="G1013" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1013" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1013" s="5">
+        <v>6</v>
+      </c>
+      <c r="J1013" s="5">
+        <v>17</v>
+      </c>
+      <c r="K1013" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1013" s="5">
+        <v>8</v>
+      </c>
+      <c r="M1013" s="5">
+        <v>15</v>
+      </c>
+      <c r="N1013" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1013" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1013" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1013" s="5">
+        <v>4</v>
+      </c>
+      <c r="R1013" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1013" s="5">
+        <v>13</v>
+      </c>
+      <c r="T1013" s="5">
+        <v>9</v>
+      </c>
+      <c r="U1013" s="5">
+        <v>27</v>
+      </c>
+      <c r="V1013" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1013" s="5">
+        <v>12</v>
+      </c>
+      <c r="X1013" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1013" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1013" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1014" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1014" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1014" s="1012">
+        <v>44023</v>
+      </c>
+      <c r="D1014" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1014" s="5">
+        <v>39</v>
+      </c>
+      <c r="F1014" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1014" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1014" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1014" s="5">
+        <v>3</v>
+      </c>
+      <c r="J1014" s="5">
+        <v>6</v>
+      </c>
+      <c r="K1014" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1014" s="5">
+        <v>6</v>
+      </c>
+      <c r="M1014" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1014" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1014" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1014" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1014" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1014" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1014" s="5">
+        <v>7</v>
+      </c>
+      <c r="T1014" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1014" s="5">
+        <v>5</v>
+      </c>
+      <c r="V1014" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1014" s="5">
+        <v>6</v>
+      </c>
+      <c r="X1014" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1014" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1014" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1015" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1015" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1015" s="1013">
+        <v>44023</v>
+      </c>
+      <c r="D1015" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1015" s="5">
+        <v>26</v>
+      </c>
+      <c r="F1015" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1015" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1015" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1015" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1015" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1015" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1015" s="5">
+        <v>5</v>
+      </c>
+      <c r="M1015" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1015" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1015" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1015" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1015" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1015" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1015" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1015" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1015" s="5">
+        <v>10</v>
+      </c>
+      <c r="V1015" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1015" s="5">
+        <v>4</v>
+      </c>
+      <c r="X1015" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1015" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1015" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1016" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1016" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1016" s="1014">
+        <v>44023</v>
+      </c>
+      <c r="D1016" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1016" s="5">
+        <v>345</v>
+      </c>
+      <c r="F1016" s="5">
+        <v>4</v>
+      </c>
+      <c r="G1016" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1016" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1016" s="5">
+        <v>35</v>
+      </c>
+      <c r="J1016" s="5">
+        <v>87</v>
+      </c>
+      <c r="K1016" s="5">
+        <v>4</v>
+      </c>
+      <c r="L1016" s="5">
+        <v>24</v>
+      </c>
+      <c r="M1016" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1016" s="5">
+        <v>6</v>
+      </c>
+      <c r="O1016" s="5">
+        <v>4</v>
+      </c>
+      <c r="P1016" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q1016" s="5">
+        <v>7</v>
+      </c>
+      <c r="R1016" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1016" s="5">
+        <v>21</v>
+      </c>
+      <c r="T1016" s="5">
+        <v>16</v>
+      </c>
+      <c r="U1016" s="5">
+        <v>55</v>
+      </c>
+      <c r="V1016" s="5">
+        <v>12</v>
+      </c>
+      <c r="W1016" s="5">
+        <v>44</v>
+      </c>
+      <c r="X1016" s="5">
+        <v>8</v>
+      </c>
+      <c r="Y1016" s="5">
+        <v>6</v>
+      </c>
+      <c r="Z1016" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1017" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1017" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1017" s="1015">
+        <v>44023</v>
+      </c>
+      <c r="D1017" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1017" s="5">
+        <v>174</v>
+      </c>
+      <c r="F1017" s="5">
+        <v>9</v>
+      </c>
+      <c r="G1017" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1017" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1017" s="5">
+        <v>9</v>
+      </c>
+      <c r="J1017" s="5">
+        <v>28</v>
+      </c>
+      <c r="K1017" s="5">
+        <v>3</v>
+      </c>
+      <c r="L1017" s="5">
+        <v>16</v>
+      </c>
+      <c r="M1017" s="5">
+        <v>16</v>
+      </c>
+      <c r="N1017" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1017" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1017" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1017" s="5">
+        <v>4</v>
+      </c>
+      <c r="R1017" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1017" s="5">
+        <v>16</v>
+      </c>
+      <c r="T1017" s="5">
+        <v>7</v>
+      </c>
+      <c r="U1017" s="5">
+        <v>30</v>
+      </c>
+      <c r="V1017" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1017" s="5">
+        <v>19</v>
+      </c>
+      <c r="X1017" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y1017" s="5">
+        <v>7</v>
+      </c>
+      <c r="Z1017" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1018" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1018" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1018" s="1016">
+        <v>44023</v>
+      </c>
+      <c r="D1018" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1018" s="5">
+        <v>5</v>
+      </c>
+      <c r="F1018" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1018" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1018" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1018" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1018" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1018" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1018" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1018" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1018" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1018" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1018" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1018" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1018" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1018" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1018" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1018" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1018" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1018" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1018" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1018" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1018" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1019" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1019" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1019" s="1017">
+        <v>44023</v>
+      </c>
+      <c r="D1019" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1019" s="5">
+        <v>6</v>
+      </c>
+      <c r="F1019" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1019" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1019" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1019" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1019" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1019" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1019" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1019" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1019" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1019" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1019" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1019" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1019" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1019" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1019" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1019" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1019" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1019" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1019" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1019" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1019" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1020" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1020" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1020" s="1018">
+        <v>44023</v>
+      </c>
+      <c r="D1020" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1020" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1020" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1021" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1021" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1021" s="1019">
+        <v>44023</v>
+      </c>
+      <c r="D1021" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1021" s="5">
+        <v>54</v>
+      </c>
+      <c r="F1021" s="5">
+        <v>10</v>
+      </c>
+      <c r="G1021" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1021" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1021" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1021" s="5">
+        <v>6</v>
+      </c>
+      <c r="K1021" s="5">
+        <v>5</v>
+      </c>
+      <c r="L1021" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1021" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1021" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1021" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1021" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1021" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1021" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1021" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1021" s="5">
+        <v>3</v>
+      </c>
+      <c r="U1021" s="5">
+        <v>7</v>
+      </c>
+      <c r="V1021" s="5">
+        <v>6</v>
+      </c>
+      <c r="W1021" s="5">
+        <v>7</v>
+      </c>
+      <c r="X1021" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1021" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1021" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1022" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1022" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1022" s="1020">
+        <v>44023</v>
+      </c>
+      <c r="D1022" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1022" s="5">
+        <v>543</v>
+      </c>
+      <c r="F1022" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1022" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1022" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1022" s="5">
+        <v>24</v>
+      </c>
+      <c r="J1022" s="5">
+        <v>167</v>
+      </c>
+      <c r="K1022" s="5">
+        <v>8</v>
+      </c>
+      <c r="L1022" s="5">
+        <v>59</v>
+      </c>
+      <c r="M1022" s="5">
+        <v>14</v>
+      </c>
+      <c r="N1022" s="5">
+        <v>4</v>
+      </c>
+      <c r="O1022" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1022" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q1022" s="5">
+        <v>11</v>
+      </c>
+      <c r="R1022" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1022" s="5">
+        <v>22</v>
+      </c>
+      <c r="T1022" s="5">
+        <v>23</v>
+      </c>
+      <c r="U1022" s="5">
+        <v>76</v>
+      </c>
+      <c r="V1022" s="5">
+        <v>28</v>
+      </c>
+      <c r="W1022" s="5">
+        <v>74</v>
+      </c>
+      <c r="X1022" s="5">
+        <v>9</v>
+      </c>
+      <c r="Y1022" s="5">
+        <v>7</v>
+      </c>
+      <c r="Z1022" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1023" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1023" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1023" s="1021">
+        <v>44023</v>
+      </c>
+      <c r="D1023" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1023" s="5">
+        <v>43</v>
+      </c>
+      <c r="F1023" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1023" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1023" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1023" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1023" s="5">
+        <v>12</v>
+      </c>
+      <c r="K1023" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1023" s="5">
+        <v>5</v>
+      </c>
+      <c r="M1023" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1023" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1023" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1023" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1023" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1023" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1023" s="5">
+        <v>3</v>
+      </c>
+      <c r="T1023" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1023" s="5">
+        <v>5</v>
+      </c>
+      <c r="V1023" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1023" s="5">
+        <v>5</v>
+      </c>
+      <c r="X1023" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1023" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z1023" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1024" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1024" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1024" s="1022">
+        <v>44023</v>
+      </c>
+      <c r="D1024" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1024" s="5">
+        <v>125</v>
+      </c>
+      <c r="F1024" s="5">
+        <v>5</v>
+      </c>
+      <c r="G1024" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1024" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1024" s="5">
+        <v>9</v>
+      </c>
+      <c r="J1024" s="5">
+        <v>17</v>
+      </c>
+      <c r="K1024" s="5">
+        <v>5</v>
+      </c>
+      <c r="L1024" s="5">
+        <v>11</v>
+      </c>
+      <c r="M1024" s="5">
+        <v>5</v>
+      </c>
+      <c r="N1024" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1024" s="5">
+        <v>3</v>
+      </c>
+      <c r="P1024" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1024" s="5">
+        <v>4</v>
+      </c>
+      <c r="R1024" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1024" s="5">
+        <v>10</v>
+      </c>
+      <c r="T1024" s="5">
+        <v>5</v>
+      </c>
+      <c r="U1024" s="5">
+        <v>23</v>
+      </c>
+      <c r="V1024" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1024" s="5">
+        <v>19</v>
+      </c>
+      <c r="X1024" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1024" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1024" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1025" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1025" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1025" s="1023">
+        <v>44023</v>
+      </c>
+      <c r="D1025" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1025" s="5">
+        <v>141</v>
+      </c>
+      <c r="F1025" s="5">
+        <v>5</v>
+      </c>
+      <c r="G1025" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1025" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1025" s="5">
+        <v>9</v>
+      </c>
+      <c r="J1025" s="5">
+        <v>36</v>
+      </c>
+      <c r="K1025" s="5">
+        <v>4</v>
+      </c>
+      <c r="L1025" s="5">
+        <v>16</v>
+      </c>
+      <c r="M1025" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1025" s="5">
+        <v>3</v>
+      </c>
+      <c r="O1025" s="5">
+        <v>4</v>
+      </c>
+      <c r="P1025" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1025" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1025" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1025" s="5">
+        <v>11</v>
+      </c>
+      <c r="T1025" s="5">
+        <v>6</v>
+      </c>
+      <c r="U1025" s="5">
+        <v>25</v>
+      </c>
+      <c r="V1025" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1025" s="5">
+        <v>18</v>
+      </c>
+      <c r="X1025" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1025" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1025" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1026" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1026" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1026" s="1024">
+        <v>44023</v>
+      </c>
+      <c r="D1026" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1026" s="5">
+        <v>17</v>
+      </c>
+      <c r="F1026" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1026" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1026" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1026" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1026" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1026" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1026" s="5">
+        <v>3</v>
+      </c>
+      <c r="M1026" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1026" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1026" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1026" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1026" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1026" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1026" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1026" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1026" s="5">
+        <v>5</v>
+      </c>
+      <c r="V1026" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1026" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1026" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1026" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1026" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1027" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1027" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1027" s="1025">
+        <v>44023</v>
+      </c>
+      <c r="D1027" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1027" s="5">
+        <v>649</v>
+      </c>
+      <c r="F1027" s="5">
+        <v>13</v>
+      </c>
+      <c r="G1027" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1027" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1027" s="5">
+        <v>66</v>
+      </c>
+      <c r="J1027" s="5">
+        <v>65</v>
+      </c>
+      <c r="K1027" s="5">
+        <v>20</v>
+      </c>
+      <c r="L1027" s="5">
+        <v>73</v>
+      </c>
+      <c r="M1027" s="5">
+        <v>10</v>
+      </c>
+      <c r="N1027" s="5">
+        <v>14</v>
+      </c>
+      <c r="O1027" s="5">
+        <v>11</v>
+      </c>
+      <c r="P1027" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q1027" s="5">
+        <v>24</v>
+      </c>
+      <c r="R1027" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1027" s="5">
+        <v>52</v>
+      </c>
+      <c r="T1027" s="5">
+        <v>33</v>
+      </c>
+      <c r="U1027" s="5">
+        <v>103</v>
+      </c>
+      <c r="V1027" s="5">
+        <v>12</v>
+      </c>
+      <c r="W1027" s="5">
+        <v>101</v>
+      </c>
+      <c r="X1027" s="5">
+        <v>30</v>
+      </c>
+      <c r="Y1027" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z1027" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1028" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1028" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1028" s="1026">
+        <v>44023</v>
+      </c>
+      <c r="D1028" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1028" s="5">
+        <v>99</v>
+      </c>
+      <c r="F1028" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1028" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1028" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1028" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1028" s="5">
+        <v>15</v>
+      </c>
+      <c r="K1028" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1028" s="5">
+        <v>14</v>
+      </c>
+      <c r="M1028" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1028" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1028" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1028" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1028" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1028" s="5">
+        <v>3</v>
+      </c>
+      <c r="S1028" s="5">
+        <v>6</v>
+      </c>
+      <c r="T1028" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1028" s="5">
+        <v>13</v>
+      </c>
+      <c r="V1028" s="5">
+        <v>8</v>
+      </c>
+      <c r="W1028" s="5">
+        <v>24</v>
+      </c>
+      <c r="X1028" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1028" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z1028" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1029" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1029" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1029" s="1027">
+        <v>44023</v>
+      </c>
+      <c r="D1029" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1029" s="5">
+        <v>227</v>
+      </c>
+      <c r="F1029" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1029" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1029" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1029" s="5">
+        <v>24</v>
+      </c>
+      <c r="J1029" s="5">
+        <v>65</v>
+      </c>
+      <c r="K1029" s="5">
+        <v>4</v>
+      </c>
+      <c r="L1029" s="5">
+        <v>19</v>
+      </c>
+      <c r="M1029" s="5">
+        <v>4</v>
+      </c>
+      <c r="N1029" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1029" s="5">
+        <v>3</v>
+      </c>
+      <c r="P1029" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1029" s="5">
+        <v>8</v>
+      </c>
+      <c r="R1029" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1029" s="5">
+        <v>19</v>
+      </c>
+      <c r="T1029" s="5">
+        <v>7</v>
+      </c>
+      <c r="U1029" s="5">
+        <v>33</v>
+      </c>
+      <c r="V1029" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1029" s="5">
+        <v>18</v>
+      </c>
+      <c r="X1029" s="5">
+        <v>7</v>
+      </c>
+      <c r="Y1029" s="5">
+        <v>6</v>
+      </c>
+      <c r="Z1029" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1030" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1030" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1030" s="1028">
+        <v>44023</v>
+      </c>
+      <c r="D1030" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1030" s="5">
+        <v>61</v>
+      </c>
+      <c r="F1030" s="5">
+        <v>3</v>
+      </c>
+      <c r="G1030" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1030" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1030" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1030" s="5">
+        <v>23</v>
+      </c>
+      <c r="K1030" s="5">
+        <v>3</v>
+      </c>
+      <c r="L1030" s="5">
+        <v>7</v>
+      </c>
+      <c r="M1030" s="5">
+        <v>8</v>
+      </c>
+      <c r="N1030" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1030" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1030" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1030" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1030" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1030" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1030" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1030" s="5">
+        <v>7</v>
+      </c>
+      <c r="V1030" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1030" s="5">
+        <v>5</v>
+      </c>
+      <c r="X1030" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1030" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1030" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1031" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1031" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1031" s="1029">
+        <v>44023</v>
+      </c>
+      <c r="D1031" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1031" s="5">
+        <v>537</v>
+      </c>
+      <c r="F1031" s="5">
+        <v>9</v>
+      </c>
+      <c r="G1031" s="5">
+        <v>3</v>
+      </c>
+      <c r="H1031" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1031" s="5">
+        <v>60</v>
+      </c>
+      <c r="J1031" s="5">
+        <v>79</v>
+      </c>
+      <c r="K1031" s="5">
+        <v>14</v>
+      </c>
+      <c r="L1031" s="5">
+        <v>48</v>
+      </c>
+      <c r="M1031" s="5">
+        <v>11</v>
+      </c>
+      <c r="N1031" s="5">
+        <v>3</v>
+      </c>
+      <c r="O1031" s="5">
+        <v>4</v>
+      </c>
+      <c r="P1031" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q1031" s="5">
+        <v>14</v>
+      </c>
+      <c r="R1031" s="5">
+        <v>3</v>
+      </c>
+      <c r="S1031" s="5">
+        <v>38</v>
+      </c>
+      <c r="T1031" s="5">
+        <v>41</v>
+      </c>
+      <c r="U1031" s="5">
+        <v>74</v>
+      </c>
+      <c r="V1031" s="5">
+        <v>6</v>
+      </c>
+      <c r="W1031" s="5">
+        <v>83</v>
+      </c>
+      <c r="X1031" s="5">
+        <v>24</v>
+      </c>
+      <c r="Y1031" s="5">
+        <v>17</v>
+      </c>
+      <c r="Z1031" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1032" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1032" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1032" s="1030">
+        <v>44023</v>
+      </c>
+      <c r="D1032" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1032" s="5">
+        <v>21</v>
+      </c>
+      <c r="F1032" s="5">
+        <v>4</v>
+      </c>
+      <c r="G1032" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1032" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1032" s="5">
+        <v>3</v>
+      </c>
+      <c r="J1032" s="5">
+        <v>7</v>
+      </c>
+      <c r="K1032" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1032" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1032" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1032" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1032" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1032" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1032" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1032" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1032" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1032" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1032" s="5">
+        <v>3</v>
+      </c>
+      <c r="V1032" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1032" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1032" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1032" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1032" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1033" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1033" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1033" s="1031">
+        <v>44023</v>
+      </c>
+      <c r="D1033" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1033" s="5">
+        <v>2094</v>
+      </c>
+      <c r="F1033" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1033" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1033" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1033" s="5">
+        <v>137</v>
+      </c>
+      <c r="J1033" s="5">
+        <v>267</v>
+      </c>
+      <c r="K1033" s="5">
+        <v>69</v>
+      </c>
+      <c r="L1033" s="5">
+        <v>166</v>
+      </c>
+      <c r="M1033" s="5">
+        <v>74</v>
+      </c>
+      <c r="N1033" s="5">
+        <v>41</v>
+      </c>
+      <c r="O1033" s="5">
+        <v>25</v>
+      </c>
+      <c r="P1033" s="5">
+        <v>28</v>
+      </c>
+      <c r="Q1033" s="5">
+        <v>110</v>
+      </c>
+      <c r="R1033" s="5">
+        <v>94</v>
+      </c>
+      <c r="S1033" s="5">
+        <v>149</v>
+      </c>
+      <c r="T1033" s="5">
+        <v>122</v>
+      </c>
+      <c r="U1033" s="5">
+        <v>272</v>
+      </c>
+      <c r="V1033" s="5">
+        <v>78</v>
+      </c>
+      <c r="W1033" s="5">
+        <v>328</v>
+      </c>
+      <c r="X1033" s="5">
+        <v>96</v>
+      </c>
+      <c r="Y1033" s="5">
+        <v>22</v>
+      </c>
+      <c r="Z1033" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1034" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1034" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1034" s="1032">
+        <v>44023</v>
+      </c>
+      <c r="D1034" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1034" s="5">
+        <v>105</v>
+      </c>
+      <c r="F1034" s="5">
+        <v>4</v>
+      </c>
+      <c r="G1034" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1034" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1034" s="5">
+        <v>13</v>
+      </c>
+      <c r="J1034" s="5">
+        <v>19</v>
+      </c>
+      <c r="K1034" s="5">
+        <v>5</v>
+      </c>
+      <c r="L1034" s="5">
+        <v>6</v>
+      </c>
+      <c r="M1034" s="5">
+        <v>7</v>
+      </c>
+      <c r="N1034" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1034" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1034" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1034" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1034" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1034" s="5">
+        <v>3</v>
+      </c>
+      <c r="T1034" s="5">
+        <v>4</v>
+      </c>
+      <c r="U1034" s="5">
+        <v>18</v>
+      </c>
+      <c r="V1034" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1034" s="5">
+        <v>13</v>
+      </c>
+      <c r="X1034" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1034" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z1034" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1035" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1035" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1035" s="1033">
+        <v>44023</v>
+      </c>
+      <c r="D1035" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1035" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1035" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1036" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1036" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1036" s="1034">
+        <v>44023</v>
+      </c>
+      <c r="D1036" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1036" s="5">
+        <v>36</v>
+      </c>
+      <c r="F1036" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1036" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1036" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1036" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1036" s="5">
+        <v>8</v>
+      </c>
+      <c r="K1036" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1036" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1036" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1036" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1036" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1036" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1036" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1036" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1036" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1036" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1036" s="5">
+        <v>8</v>
+      </c>
+      <c r="V1036" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1036" s="5">
+        <v>3</v>
+      </c>
+      <c r="X1036" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1036" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1036" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1037" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1037" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1037" s="1035">
+        <v>44023</v>
+      </c>
+      <c r="D1037" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1037" s="5">
+        <v>204</v>
+      </c>
+      <c r="F1037" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1037" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1037" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1037" s="5">
+        <v>6</v>
+      </c>
+      <c r="J1037" s="5">
+        <v>74</v>
+      </c>
+      <c r="K1037" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1037" s="5">
+        <v>14</v>
+      </c>
+      <c r="M1037" s="5">
+        <v>9</v>
+      </c>
+      <c r="N1037" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1037" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1037" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1037" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1037" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1037" s="5">
+        <v>10</v>
+      </c>
+      <c r="T1037" s="5">
+        <v>4</v>
+      </c>
+      <c r="U1037" s="5">
+        <v>40</v>
+      </c>
+      <c r="V1037" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1037" s="5">
+        <v>26</v>
+      </c>
+      <c r="X1037" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1037" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z1037" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1038" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1038" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1038" s="1036">
+        <v>44023</v>
+      </c>
+      <c r="D1038" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1038" s="5">
+        <v>61</v>
+      </c>
+      <c r="F1038" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1038" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1038" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1038" s="5">
+        <v>5</v>
+      </c>
+      <c r="J1038" s="5">
+        <v>12</v>
+      </c>
+      <c r="K1038" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1038" s="5">
+        <v>5</v>
+      </c>
+      <c r="M1038" s="5">
+        <v>3</v>
+      </c>
+      <c r="N1038" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1038" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1038" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1038" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1038" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1038" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1038" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1038" s="5">
+        <v>14</v>
+      </c>
+      <c r="V1038" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1038" s="5">
+        <v>16</v>
+      </c>
+      <c r="X1038" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y1038" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1038" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1039" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1039" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1039" s="1037">
+        <v>44023</v>
+      </c>
+      <c r="D1039" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1039" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1039" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1040" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1040" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1040" s="1038">
+        <v>44023</v>
+      </c>
+      <c r="D1040" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1040" s="5">
+        <v>45</v>
+      </c>
+      <c r="F1040" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1040" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1040" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1040" s="5">
+        <v>6</v>
+      </c>
+      <c r="J1040" s="5">
+        <v>4</v>
+      </c>
+      <c r="K1040" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1040" s="5">
+        <v>9</v>
+      </c>
+      <c r="M1040" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1040" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1040" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1040" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1040" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1040" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1040" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1040" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1040" s="5">
+        <v>13</v>
+      </c>
+      <c r="V1040" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1040" s="5">
+        <v>4</v>
+      </c>
+      <c r="X1040" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1040" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1040" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1041" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1041" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1041" s="1039">
+        <v>44023</v>
+      </c>
+      <c r="D1041" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1041" s="5">
+        <v>1105</v>
+      </c>
+      <c r="F1041" s="5">
+        <v>9</v>
+      </c>
+      <c r="G1041" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1041" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1041" s="5">
+        <v>89</v>
+      </c>
+      <c r="J1041" s="5">
+        <v>114</v>
+      </c>
+      <c r="K1041" s="5">
+        <v>36</v>
+      </c>
+      <c r="L1041" s="5">
+        <v>112</v>
+      </c>
+      <c r="M1041" s="5">
+        <v>34</v>
+      </c>
+      <c r="N1041" s="5">
+        <v>12</v>
+      </c>
+      <c r="O1041" s="5">
+        <v>27</v>
+      </c>
+      <c r="P1041" s="5">
+        <v>24</v>
+      </c>
+      <c r="Q1041" s="5">
+        <v>45</v>
+      </c>
+      <c r="R1041" s="5">
+        <v>43</v>
+      </c>
+      <c r="S1041" s="5">
+        <v>109</v>
+      </c>
+      <c r="T1041" s="5">
+        <v>57</v>
+      </c>
+      <c r="U1041" s="5">
+        <v>125</v>
+      </c>
+      <c r="V1041" s="5">
+        <v>34</v>
+      </c>
+      <c r="W1041" s="5">
+        <v>161</v>
+      </c>
+      <c r="X1041" s="5">
+        <v>54</v>
+      </c>
+      <c r="Y1041" s="5">
+        <v>14</v>
+      </c>
+      <c r="Z1041" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1042" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1042" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1042" s="1040">
+        <v>44023</v>
+      </c>
+      <c r="D1042" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1042" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1042" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1043" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1043" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1043" s="1041">
+        <v>44023</v>
+      </c>
+      <c r="D1043" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1043" s="5">
+        <v>209</v>
+      </c>
+      <c r="F1043" s="5">
+        <v>6</v>
+      </c>
+      <c r="G1043" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1043" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1043" s="5">
+        <v>16</v>
+      </c>
+      <c r="J1043" s="5">
+        <v>59</v>
+      </c>
+      <c r="K1043" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1043" s="5">
+        <v>17</v>
+      </c>
+      <c r="M1043" s="5">
+        <v>10</v>
+      </c>
+      <c r="N1043" s="5">
+        <v>6</v>
+      </c>
+      <c r="O1043" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1043" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1043" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1043" s="5">
+        <v>4</v>
+      </c>
+      <c r="S1043" s="5">
+        <v>6</v>
+      </c>
+      <c r="T1043" s="5">
+        <v>11</v>
+      </c>
+      <c r="U1043" s="5">
+        <v>36</v>
+      </c>
+      <c r="V1043" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1043" s="5">
+        <v>20</v>
+      </c>
+      <c r="X1043" s="5">
+        <v>7</v>
+      </c>
+      <c r="Y1043" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z1043" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A7:D932" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A7:D1043" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="6">
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="A1:M1"/>
